--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -456,10 +456,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>250614</t>
-        </is>
+      <c r="A2" t="n">
+        <v>250614</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -476,10 +474,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>1894531</t>
-        </is>
+      <c r="A3" t="n">
+        <v>1894531</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -496,10 +492,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>1620340</t>
-        </is>
+      <c r="A4" t="n">
+        <v>1620340</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -516,10 +510,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>1846361</t>
-        </is>
+      <c r="A5" t="n">
+        <v>1846361</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -536,10 +528,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>276595</t>
-        </is>
+      <c r="A6" t="n">
+        <v>276595</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -556,10 +546,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>357834</t>
-        </is>
+      <c r="A7" t="n">
+        <v>357834</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -576,10 +564,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2674079</t>
-        </is>
+      <c r="A8" t="n">
+        <v>2674079</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -596,10 +582,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>1847887</t>
-        </is>
+      <c r="A9" t="n">
+        <v>1847887</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -616,10 +600,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>384624</t>
-        </is>
+      <c r="A10" t="n">
+        <v>384624</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -636,10 +618,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>1848061</t>
-        </is>
+      <c r="A11" t="n">
+        <v>1848061</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -656,10 +636,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>1822652</t>
-        </is>
+      <c r="A12" t="n">
+        <v>1822652</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -676,10 +654,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>1870669</t>
-        </is>
+      <c r="A13" t="n">
+        <v>1870669</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -696,10 +672,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>447105</t>
-        </is>
+      <c r="A14" t="n">
+        <v>447105</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -716,10 +690,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>1860079</t>
-        </is>
+      <c r="A15" t="n">
+        <v>1860079</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -736,10 +708,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>1404293</t>
-        </is>
+      <c r="A16" t="n">
+        <v>1404293</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -756,10 +726,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>1940809</t>
-        </is>
+      <c r="A17" t="n">
+        <v>1940809</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -776,10 +744,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>1922054</t>
-        </is>
+      <c r="A18" t="n">
+        <v>1922054</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -796,10 +762,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>1934118</t>
-        </is>
+      <c r="A19" t="n">
+        <v>1934118</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -816,10 +780,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>9033</t>
-        </is>
+      <c r="A20" t="n">
+        <v>9033</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -836,10 +798,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>1144232</t>
-        </is>
+      <c r="A21" t="n">
+        <v>1144232</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -856,10 +816,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>1697518</t>
-        </is>
+      <c r="A22" t="n">
+        <v>1697518</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -876,10 +834,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>445170</t>
-        </is>
+      <c r="A23" t="n">
+        <v>445170</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -896,10 +852,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>1503865</t>
-        </is>
+      <c r="A24" t="n">
+        <v>1503865</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -916,10 +870,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>513334</t>
-        </is>
+      <c r="A25" t="n">
+        <v>513334</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -936,10 +888,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>1855488</t>
-        </is>
+      <c r="A26" t="n">
+        <v>1855488</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -956,10 +906,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2397242</t>
-        </is>
+      <c r="A27" t="n">
+        <v>2397242</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -976,10 +924,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2917847</t>
-        </is>
+      <c r="A28" t="n">
+        <v>2917847</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -996,10 +942,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>250388</t>
-        </is>
+      <c r="A29" t="n">
+        <v>250388</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1016,10 +960,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>1847175</t>
-        </is>
+      <c r="A30" t="n">
+        <v>1847175</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1036,10 +978,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>940038</t>
-        </is>
+      <c r="A31" t="n">
+        <v>940038</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1056,10 +996,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>1849459</t>
-        </is>
+      <c r="A32" t="n">
+        <v>1849459</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1076,10 +1014,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>1811443</t>
-        </is>
+      <c r="A33" t="n">
+        <v>1811443</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1096,10 +1032,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>1280694</t>
-        </is>
+      <c r="A34" t="n">
+        <v>1280694</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1116,10 +1050,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>156564</t>
-        </is>
+      <c r="A35" t="n">
+        <v>156564</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1136,10 +1068,8 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>258098</t>
-        </is>
+      <c r="A36" t="n">
+        <v>258098</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1156,10 +1086,8 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>1821945</t>
-        </is>
+      <c r="A37" t="n">
+        <v>1821945</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1176,10 +1104,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>1993640</t>
-        </is>
+      <c r="A38" t="n">
+        <v>1993640</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1196,10 +1122,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>1750978</t>
-        </is>
+      <c r="A39" t="n">
+        <v>1750978</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1216,10 +1140,8 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>1894870</t>
-        </is>
+      <c r="A40" t="n">
+        <v>1894870</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1236,10 +1158,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>487993</t>
-        </is>
+      <c r="A41" t="n">
+        <v>487993</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1256,10 +1176,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>1849626</t>
-        </is>
+      <c r="A42" t="n">
+        <v>1849626</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1276,10 +1194,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>446867</t>
-        </is>
+      <c r="A43" t="n">
+        <v>446867</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1296,10 +1212,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>387596</t>
-        </is>
+      <c r="A44" t="n">
+        <v>387596</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1316,10 +1230,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>447854</t>
-        </is>
+      <c r="A45" t="n">
+        <v>447854</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1336,10 +1248,8 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>2506569</t>
-        </is>
+      <c r="A46" t="n">
+        <v>2506569</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1356,10 +1266,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>122118</t>
-        </is>
+      <c r="A47" t="n">
+        <v>122118</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1376,10 +1284,8 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>1387486</t>
-        </is>
+      <c r="A48" t="n">
+        <v>1387486</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1396,10 +1302,8 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>1852300</t>
-        </is>
+      <c r="A49" t="n">
+        <v>1852300</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1416,10 +1320,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>838859</t>
-        </is>
+      <c r="A50" t="n">
+        <v>838859</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1436,10 +1338,8 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>1879062</t>
-        </is>
+      <c r="A51" t="n">
+        <v>1879062</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1456,10 +1356,8 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>1058394</t>
-        </is>
+      <c r="A52" t="n">
+        <v>1058394</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1476,10 +1374,8 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>1850120</t>
-        </is>
+      <c r="A53" t="n">
+        <v>1850120</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1496,10 +1392,8 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>1848783</t>
-        </is>
+      <c r="A54" t="n">
+        <v>1848783</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1516,10 +1410,8 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>1864453</t>
-        </is>
+      <c r="A55" t="n">
+        <v>1864453</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1536,10 +1428,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>181240</t>
-        </is>
+      <c r="A56" t="n">
+        <v>181240</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1556,10 +1446,8 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>1148382</t>
-        </is>
+      <c r="A57" t="n">
+        <v>1148382</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1576,10 +1464,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>1623633</t>
-        </is>
+      <c r="A58" t="n">
+        <v>1623633</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1596,10 +1482,8 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>444526</t>
-        </is>
+      <c r="A59" t="n">
+        <v>444526</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1616,10 +1500,8 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>1730342</t>
-        </is>
+      <c r="A60" t="n">
+        <v>1730342</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1636,10 +1518,8 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>691580</t>
-        </is>
+      <c r="A61" t="n">
+        <v>691580</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1656,10 +1536,8 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>1839472</t>
-        </is>
+      <c r="A62" t="n">
+        <v>1839472</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1676,10 +1554,8 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>391533</t>
-        </is>
+      <c r="A63" t="n">
+        <v>391533</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -1696,10 +1572,8 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>1864236</t>
-        </is>
+      <c r="A64" t="n">
+        <v>1864236</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -1716,10 +1590,8 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>2289486</t>
-        </is>
+      <c r="A65" t="n">
+        <v>2289486</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -1736,10 +1608,8 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>483446</t>
-        </is>
+      <c r="A66" t="n">
+        <v>483446</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -1756,10 +1626,8 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>1848681</t>
-        </is>
+      <c r="A67" t="n">
+        <v>1848681</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -1776,10 +1644,8 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>333395</t>
-        </is>
+      <c r="A68" t="n">
+        <v>333395</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -1796,10 +1662,8 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>1852992</t>
-        </is>
+      <c r="A69" t="n">
+        <v>1852992</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -1816,10 +1680,8 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>1686275</t>
-        </is>
+      <c r="A70" t="n">
+        <v>1686275</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -1836,10 +1698,8 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>445256</t>
-        </is>
+      <c r="A71" t="n">
+        <v>445256</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -1856,10 +1716,8 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>2094347</t>
-        </is>
+      <c r="A72" t="n">
+        <v>2094347</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -1876,10 +1734,8 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>473251</t>
-        </is>
+      <c r="A73" t="n">
+        <v>473251</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -1896,10 +1752,8 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>1846389</t>
-        </is>
+      <c r="A74" t="n">
+        <v>1846389</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -1916,10 +1770,8 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>1339666</t>
-        </is>
+      <c r="A75" t="n">
+        <v>1339666</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -1936,10 +1788,8 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>1207511</t>
-        </is>
+      <c r="A76" t="n">
+        <v>1207511</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -1956,10 +1806,8 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>1399651</t>
-        </is>
+      <c r="A77" t="n">
+        <v>1399651</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -1976,10 +1824,8 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>143759</t>
-        </is>
+      <c r="A78" t="n">
+        <v>143759</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -1996,10 +1842,8 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>301987</t>
-        </is>
+      <c r="A79" t="n">
+        <v>301987</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2016,10 +1860,8 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>1365909</t>
-        </is>
+      <c r="A80" t="n">
+        <v>1365909</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2036,10 +1878,8 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>1930270</t>
-        </is>
+      <c r="A81" t="n">
+        <v>1930270</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -2056,10 +1896,8 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>1927324</t>
-        </is>
+      <c r="A82" t="n">
+        <v>1927324</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -2076,10 +1914,8 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>2589881</t>
-        </is>
+      <c r="A83" t="n">
+        <v>2589881</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -2096,10 +1932,8 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>376213</t>
-        </is>
+      <c r="A84" t="n">
+        <v>376213</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -2116,10 +1950,8 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>2417367</t>
-        </is>
+      <c r="A85" t="n">
+        <v>2417367</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -2136,10 +1968,8 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>447631</t>
-        </is>
+      <c r="A86" t="n">
+        <v>447631</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -2156,10 +1986,8 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>1811882</t>
-        </is>
+      <c r="A87" t="n">
+        <v>1811882</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -2176,10 +2004,8 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>445975</t>
-        </is>
+      <c r="A88" t="n">
+        <v>445975</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -2196,10 +2022,8 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>1868176</t>
-        </is>
+      <c r="A89" t="n">
+        <v>1868176</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2216,10 +2040,8 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>391302</t>
-        </is>
+      <c r="A90" t="n">
+        <v>391302</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -2236,10 +2058,8 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>48348</t>
-        </is>
+      <c r="A91" t="n">
+        <v>48348</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -2256,10 +2076,8 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>1936767</t>
-        </is>
+      <c r="A92" t="n">
+        <v>1936767</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -2276,10 +2094,8 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>499899</t>
-        </is>
+      <c r="A93" t="n">
+        <v>499899</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -2296,10 +2112,8 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>448130</t>
-        </is>
+      <c r="A94" t="n">
+        <v>448130</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -2316,10 +2130,8 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>17627</t>
-        </is>
+      <c r="A95" t="n">
+        <v>17627</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -2336,10 +2148,8 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>1764638</t>
-        </is>
+      <c r="A96" t="n">
+        <v>1764638</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -2356,10 +2166,8 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>1870884</t>
-        </is>
+      <c r="A97" t="n">
+        <v>1870884</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -2376,10 +2184,8 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>489099</t>
-        </is>
+      <c r="A98" t="n">
+        <v>489099</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -2396,10 +2202,8 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>1863259</t>
-        </is>
+      <c r="A99" t="n">
+        <v>1863259</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -2416,10 +2220,8 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>1052928</t>
-        </is>
+      <c r="A100" t="n">
+        <v>1052928</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -2436,10 +2238,8 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>208825</t>
-        </is>
+      <c r="A101" t="n">
+        <v>208825</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -2456,10 +2256,8 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>1649891</t>
-        </is>
+      <c r="A102" t="n">
+        <v>1649891</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2476,10 +2274,8 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>187240</t>
-        </is>
+      <c r="A103" t="n">
+        <v>187240</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -2496,10 +2292,8 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>633922</t>
-        </is>
+      <c r="A104" t="n">
+        <v>633922</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -2516,10 +2310,8 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>711607</t>
-        </is>
+      <c r="A105" t="n">
+        <v>711607</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -2536,10 +2328,8 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>367879</t>
-        </is>
+      <c r="A106" t="n">
+        <v>367879</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -2556,10 +2346,8 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>275960</t>
-        </is>
+      <c r="A107" t="n">
+        <v>275960</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -2576,10 +2364,8 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>2306946</t>
-        </is>
+      <c r="A108" t="n">
+        <v>2306946</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -2596,10 +2382,8 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>554070</t>
-        </is>
+      <c r="A109" t="n">
+        <v>554070</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -2616,10 +2400,8 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>374645</t>
-        </is>
+      <c r="A110" t="n">
+        <v>374645</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -2636,10 +2418,8 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>255165</t>
-        </is>
+      <c r="A111" t="n">
+        <v>255165</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -2656,10 +2436,8 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>2174456</t>
-        </is>
+      <c r="A112" t="n">
+        <v>2174456</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -2676,10 +2454,8 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>2022157</t>
-        </is>
+      <c r="A113" t="n">
+        <v>2022157</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -2696,10 +2472,8 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>2897077</t>
-        </is>
+      <c r="A114" t="n">
+        <v>2897077</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -2716,10 +2490,8 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>1906080</t>
-        </is>
+      <c r="A115" t="n">
+        <v>1906080</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -2736,10 +2508,8 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>210421</t>
-        </is>
+      <c r="A116" t="n">
+        <v>210421</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -2756,10 +2526,8 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>1853245</t>
-        </is>
+      <c r="A117" t="n">
+        <v>1853245</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -2776,10 +2544,8 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>2361020</t>
-        </is>
+      <c r="A118" t="n">
+        <v>2361020</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -2796,10 +2562,8 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>1879899</t>
-        </is>
+      <c r="A119" t="n">
+        <v>1879899</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -2816,10 +2580,8 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>990197</t>
-        </is>
+      <c r="A120" t="n">
+        <v>990197</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -2836,10 +2598,8 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>1941211</t>
-        </is>
+      <c r="A121" t="n">
+        <v>1941211</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -2856,10 +2616,8 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>251546</t>
-        </is>
+      <c r="A122" t="n">
+        <v>251546</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -2876,10 +2634,8 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>9457</t>
-        </is>
+      <c r="A123" t="n">
+        <v>9457</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -2896,10 +2652,8 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>1848545</t>
-        </is>
+      <c r="A124" t="n">
+        <v>1848545</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -2916,10 +2670,8 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>1664269</t>
-        </is>
+      <c r="A125" t="n">
+        <v>1664269</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -2936,10 +2688,8 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>334733</t>
-        </is>
+      <c r="A126" t="n">
+        <v>334733</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -2956,10 +2706,8 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>1846672</t>
-        </is>
+      <c r="A127" t="n">
+        <v>1846672</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -2976,10 +2724,8 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>277056</t>
-        </is>
+      <c r="A128" t="n">
+        <v>277056</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -2996,10 +2742,8 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>462131</t>
-        </is>
+      <c r="A129" t="n">
+        <v>462131</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -3016,10 +2760,8 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>2499419</t>
-        </is>
+      <c r="A130" t="n">
+        <v>2499419</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -3036,10 +2778,8 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>277613</t>
-        </is>
+      <c r="A131" t="n">
+        <v>277613</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -3056,10 +2796,8 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>2704182</t>
-        </is>
+      <c r="A132" t="n">
+        <v>2704182</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -3076,10 +2814,8 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>234720</t>
-        </is>
+      <c r="A133" t="n">
+        <v>234720</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -3096,10 +2832,8 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>1418519</t>
-        </is>
+      <c r="A134" t="n">
+        <v>1418519</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -3116,10 +2850,8 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>371777</t>
-        </is>
+      <c r="A135" t="n">
+        <v>371777</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -3136,10 +2868,8 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>1571431</t>
-        </is>
+      <c r="A136" t="n">
+        <v>1571431</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -3156,10 +2886,8 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>439325</t>
-        </is>
+      <c r="A137" t="n">
+        <v>439325</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -3176,10 +2904,8 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>339018</t>
-        </is>
+      <c r="A138" t="n">
+        <v>339018</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -3196,10 +2922,8 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>1533462</t>
-        </is>
+      <c r="A139" t="n">
+        <v>1533462</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -3216,10 +2940,8 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>1896409</t>
-        </is>
+      <c r="A140" t="n">
+        <v>1896409</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -3236,10 +2958,8 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>1058998</t>
-        </is>
+      <c r="A141" t="n">
+        <v>1058998</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -3256,10 +2976,8 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>433007</t>
-        </is>
+      <c r="A142" t="n">
+        <v>433007</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -3276,10 +2994,8 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>327324</t>
-        </is>
+      <c r="A143" t="n">
+        <v>327324</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -3296,10 +3012,8 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>374761</t>
-        </is>
+      <c r="A144" t="n">
+        <v>374761</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -3316,10 +3030,8 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>1549043</t>
-        </is>
+      <c r="A145" t="n">
+        <v>1549043</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -3336,10 +3048,8 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>823355</t>
-        </is>
+      <c r="A146" t="n">
+        <v>823355</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -3356,10 +3066,8 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>1040928</t>
-        </is>
+      <c r="A147" t="n">
+        <v>1040928</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -3376,10 +3084,8 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>1892624</t>
-        </is>
+      <c r="A148" t="n">
+        <v>1892624</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -3396,10 +3102,8 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>1596345</t>
-        </is>
+      <c r="A149" t="n">
+        <v>1596345</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -3416,10 +3120,8 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>1582847</t>
-        </is>
+      <c r="A150" t="n">
+        <v>1582847</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -3436,10 +3138,8 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>1931797</t>
-        </is>
+      <c r="A151" t="n">
+        <v>1931797</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -3456,10 +3156,8 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>605794</t>
-        </is>
+      <c r="A152" t="n">
+        <v>605794</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -3476,10 +3174,8 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>1848046</t>
-        </is>
+      <c r="A153" t="n">
+        <v>1848046</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -3496,10 +3192,8 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>1394823</t>
-        </is>
+      <c r="A154" t="n">
+        <v>1394823</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -3516,10 +3210,8 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>2183981</t>
-        </is>
+      <c r="A155" t="n">
+        <v>2183981</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -3536,10 +3228,8 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>1749707</t>
-        </is>
+      <c r="A156" t="n">
+        <v>1749707</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -3556,10 +3246,8 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>1861842</t>
-        </is>
+      <c r="A157" t="n">
+        <v>1861842</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -3576,10 +3264,8 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>2323288</t>
-        </is>
+      <c r="A158" t="n">
+        <v>2323288</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -3596,10 +3282,8 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>394801</t>
-        </is>
+      <c r="A159" t="n">
+        <v>394801</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -3616,10 +3300,8 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>2659235</t>
-        </is>
+      <c r="A160" t="n">
+        <v>2659235</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -3636,10 +3318,8 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>1490246</t>
-        </is>
+      <c r="A161" t="n">
+        <v>1490246</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -3656,10 +3336,8 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>1848408</t>
-        </is>
+      <c r="A162" t="n">
+        <v>1848408</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -3676,10 +3354,8 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>1778211</t>
-        </is>
+      <c r="A163" t="n">
+        <v>1778211</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -3696,10 +3372,8 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>387056</t>
-        </is>
+      <c r="A164" t="n">
+        <v>387056</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -3716,10 +3390,8 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>459619</t>
-        </is>
+      <c r="A165" t="n">
+        <v>459619</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -3736,10 +3408,8 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>982729</t>
-        </is>
+      <c r="A166" t="n">
+        <v>982729</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -3756,10 +3426,8 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>1050728</t>
-        </is>
+      <c r="A167" t="n">
+        <v>1050728</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -3776,10 +3444,8 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>448719</t>
-        </is>
+      <c r="A168" t="n">
+        <v>448719</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -3796,10 +3462,8 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>65736</t>
-        </is>
+      <c r="A169" t="n">
+        <v>65736</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -3816,10 +3480,8 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>1577235</t>
-        </is>
+      <c r="A170" t="n">
+        <v>1577235</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -3836,10 +3498,8 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>1450320</t>
-        </is>
+      <c r="A171" t="n">
+        <v>1450320</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -3856,10 +3516,8 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>2727879</t>
-        </is>
+      <c r="A172" t="n">
+        <v>2727879</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -3876,10 +3534,8 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>1742990</t>
-        </is>
+      <c r="A173" t="n">
+        <v>1742990</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -3896,10 +3552,8 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>215689</t>
-        </is>
+      <c r="A174" t="n">
+        <v>215689</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -3916,10 +3570,8 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>266251</t>
-        </is>
+      <c r="A175" t="n">
+        <v>266251</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -3936,10 +3588,8 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>224129</t>
-        </is>
+      <c r="A176" t="n">
+        <v>224129</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -3956,10 +3606,8 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>642262</t>
-        </is>
+      <c r="A177" t="n">
+        <v>642262</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -3976,10 +3624,8 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>1844004</t>
-        </is>
+      <c r="A178" t="n">
+        <v>1844004</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -3996,10 +3642,8 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>251735</t>
-        </is>
+      <c r="A179" t="n">
+        <v>251735</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -4016,10 +3660,8 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>2100411</t>
-        </is>
+      <c r="A180" t="n">
+        <v>2100411</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -4036,10 +3678,8 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>448157</t>
-        </is>
+      <c r="A181" t="n">
+        <v>448157</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -4056,10 +3696,8 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>469195</t>
-        </is>
+      <c r="A182" t="n">
+        <v>469195</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -4076,10 +3714,8 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>2334545</t>
-        </is>
+      <c r="A183" t="n">
+        <v>2334545</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -4096,10 +3732,8 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>1557626</t>
-        </is>
+      <c r="A184" t="n">
+        <v>1557626</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -4116,10 +3750,8 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>1606976</t>
-        </is>
+      <c r="A185" t="n">
+        <v>1606976</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -4136,10 +3768,8 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>2623504</t>
-        </is>
+      <c r="A186" t="n">
+        <v>2623504</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -4156,10 +3786,8 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>470592</t>
-        </is>
+      <c r="A187" t="n">
+        <v>470592</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -4176,10 +3804,8 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>1439492</t>
-        </is>
+      <c r="A188" t="n">
+        <v>1439492</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -4196,10 +3822,8 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>507348</t>
-        </is>
+      <c r="A189" t="n">
+        <v>507348</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -4216,10 +3840,8 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>1727289</t>
-        </is>
+      <c r="A190" t="n">
+        <v>1727289</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -4236,10 +3858,8 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>139941</t>
-        </is>
+      <c r="A191" t="n">
+        <v>139941</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -4256,10 +3876,8 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>1292806</t>
-        </is>
+      <c r="A192" t="n">
+        <v>1292806</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -4276,10 +3894,8 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>1399622</t>
-        </is>
+      <c r="A193" t="n">
+        <v>1399622</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -4296,10 +3912,8 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>455171</t>
-        </is>
+      <c r="A194" t="n">
+        <v>455171</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -4316,10 +3930,8 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>1565989</t>
-        </is>
+      <c r="A195" t="n">
+        <v>1565989</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -4336,10 +3948,8 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>449330</t>
-        </is>
+      <c r="A196" t="n">
+        <v>449330</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -4356,10 +3966,8 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>207132</t>
-        </is>
+      <c r="A197" t="n">
+        <v>207132</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -4376,10 +3984,8 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>1920560</t>
-        </is>
+      <c r="A198" t="n">
+        <v>1920560</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -4396,10 +4002,8 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>1947878</t>
-        </is>
+      <c r="A199" t="n">
+        <v>1947878</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -4416,10 +4020,8 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>1860821</t>
-        </is>
+      <c r="A200" t="n">
+        <v>1860821</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -4436,10 +4038,8 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>2496415</t>
-        </is>
+      <c r="A201" t="n">
+        <v>2496415</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -4456,10 +4056,8 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>1783453</t>
-        </is>
+      <c r="A202" t="n">
+        <v>1783453</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -4476,10 +4074,8 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>459160</t>
-        </is>
+      <c r="A203" t="n">
+        <v>459160</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -4496,10 +4092,8 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>1053626</t>
-        </is>
+      <c r="A204" t="n">
+        <v>1053626</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -4516,10 +4110,8 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>59998</t>
-        </is>
+      <c r="A205" t="n">
+        <v>59998</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -4536,10 +4128,8 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>1857213</t>
-        </is>
+      <c r="A206" t="n">
+        <v>1857213</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -4556,10 +4146,8 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>2822158</t>
-        </is>
+      <c r="A207" t="n">
+        <v>2822158</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -4576,10 +4164,8 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>331843</t>
-        </is>
+      <c r="A208" t="n">
+        <v>331843</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -4596,10 +4182,8 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>458409</t>
-        </is>
+      <c r="A209" t="n">
+        <v>458409</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -4616,10 +4200,8 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>2694898</t>
-        </is>
+      <c r="A210" t="n">
+        <v>2694898</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -4636,10 +4218,8 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>296318</t>
-        </is>
+      <c r="A211" t="n">
+        <v>296318</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -4656,10 +4236,8 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>151242</t>
-        </is>
+      <c r="A212" t="n">
+        <v>151242</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -4676,10 +4254,8 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>448100</t>
-        </is>
+      <c r="A213" t="n">
+        <v>448100</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -4696,10 +4272,8 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>437182</t>
-        </is>
+      <c r="A214" t="n">
+        <v>437182</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -4716,10 +4290,8 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>1583387</t>
-        </is>
+      <c r="A215" t="n">
+        <v>1583387</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -4736,10 +4308,8 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>466166</t>
-        </is>
+      <c r="A216" t="n">
+        <v>466166</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -4756,10 +4326,8 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>1883865</t>
-        </is>
+      <c r="A217" t="n">
+        <v>1883865</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -4776,10 +4344,8 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>448256</t>
-        </is>
+      <c r="A218" t="n">
+        <v>448256</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -4796,10 +4362,8 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>463619</t>
-        </is>
+      <c r="A219" t="n">
+        <v>463619</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -4816,10 +4380,8 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>1869436</t>
-        </is>
+      <c r="A220" t="n">
+        <v>1869436</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -4836,10 +4398,8 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>598301</t>
-        </is>
+      <c r="A221" t="n">
+        <v>598301</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -4856,10 +4416,8 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>2775067</t>
-        </is>
+      <c r="A222" t="n">
+        <v>2775067</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -4876,10 +4434,8 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>2182884</t>
-        </is>
+      <c r="A223" t="n">
+        <v>2182884</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -4896,10 +4452,8 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>800503</t>
-        </is>
+      <c r="A224" t="n">
+        <v>800503</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -4916,10 +4470,8 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>1849913</t>
-        </is>
+      <c r="A225" t="n">
+        <v>1849913</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -4936,10 +4488,8 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>303729</t>
-        </is>
+      <c r="A226" t="n">
+        <v>303729</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -4956,10 +4506,8 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>1901930</t>
-        </is>
+      <c r="A227" t="n">
+        <v>1901930</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -4976,10 +4524,8 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>156936</t>
-        </is>
+      <c r="A228" t="n">
+        <v>156936</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -4996,10 +4542,8 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>2888462</t>
-        </is>
+      <c r="A229" t="n">
+        <v>2888462</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -5016,10 +4560,8 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>1161865</t>
-        </is>
+      <c r="A230" t="n">
+        <v>1161865</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -5036,10 +4578,8 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>292392</t>
-        </is>
+      <c r="A231" t="n">
+        <v>292392</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -5056,10 +4596,8 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>1005487</t>
-        </is>
+      <c r="A232" t="n">
+        <v>1005487</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -5076,10 +4614,8 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>1896262</t>
-        </is>
+      <c r="A233" t="n">
+        <v>1896262</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -5096,10 +4632,8 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>1907885</t>
-        </is>
+      <c r="A234" t="n">
+        <v>1907885</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -5116,10 +4650,8 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>1897399</t>
-        </is>
+      <c r="A235" t="n">
+        <v>1897399</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -5136,10 +4668,8 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>505208</t>
-        </is>
+      <c r="A236" t="n">
+        <v>505208</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -5156,10 +4686,8 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>1953965</t>
-        </is>
+      <c r="A237" t="n">
+        <v>1953965</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -5176,10 +4704,8 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>1726320</t>
-        </is>
+      <c r="A238" t="n">
+        <v>1726320</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -5196,10 +4722,8 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>163573</t>
-        </is>
+      <c r="A239" t="n">
+        <v>163573</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -5216,10 +4740,8 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>1890472</t>
-        </is>
+      <c r="A240" t="n">
+        <v>1890472</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -5236,10 +4758,8 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>445353</t>
-        </is>
+      <c r="A241" t="n">
+        <v>445353</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -5256,10 +4776,8 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>1847872</t>
-        </is>
+      <c r="A242" t="n">
+        <v>1847872</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -5276,10 +4794,8 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>715789</t>
-        </is>
+      <c r="A243" t="n">
+        <v>715789</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -5296,10 +4812,8 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>448225</t>
-        </is>
+      <c r="A244" t="n">
+        <v>448225</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -5316,10 +4830,8 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>1862524</t>
-        </is>
+      <c r="A245" t="n">
+        <v>1862524</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -5336,10 +4848,8 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>513316</t>
-        </is>
+      <c r="A246" t="n">
+        <v>513316</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -5356,10 +4866,8 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>1811088</t>
-        </is>
+      <c r="A247" t="n">
+        <v>1811088</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -5376,10 +4884,8 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>843014</t>
-        </is>
+      <c r="A248" t="n">
+        <v>843014</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -5396,10 +4902,8 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>2013933</t>
-        </is>
+      <c r="A249" t="n">
+        <v>2013933</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -5416,10 +4920,8 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>1860157</t>
-        </is>
+      <c r="A250" t="n">
+        <v>1860157</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -5436,10 +4938,8 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>448544</t>
-        </is>
+      <c r="A251" t="n">
+        <v>448544</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -5456,10 +4956,8 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>696468</t>
-        </is>
+      <c r="A252" t="n">
+        <v>696468</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -5476,10 +4974,8 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>1450821</t>
-        </is>
+      <c r="A253" t="n">
+        <v>1450821</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -5496,10 +4992,8 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>1900497</t>
-        </is>
+      <c r="A254" t="n">
+        <v>1900497</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -5516,10 +5010,8 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>134155</t>
-        </is>
+      <c r="A255" t="n">
+        <v>134155</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -5536,10 +5028,8 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>547134</t>
-        </is>
+      <c r="A256" t="n">
+        <v>547134</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -5556,10 +5046,8 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>1844268</t>
-        </is>
+      <c r="A257" t="n">
+        <v>1844268</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -5576,10 +5064,8 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>1424153</t>
-        </is>
+      <c r="A258" t="n">
+        <v>1424153</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -5596,10 +5082,8 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>2651364</t>
-        </is>
+      <c r="A259" t="n">
+        <v>2651364</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -5616,10 +5100,8 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>248260</t>
-        </is>
+      <c r="A260" t="n">
+        <v>248260</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -5636,10 +5118,8 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>2892565</t>
-        </is>
+      <c r="A261" t="n">
+        <v>2892565</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -5656,10 +5136,8 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>221653</t>
-        </is>
+      <c r="A262" t="n">
+        <v>221653</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -5676,10 +5154,8 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>1849473</t>
-        </is>
+      <c r="A263" t="n">
+        <v>1849473</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -5696,10 +5172,8 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>825827</t>
-        </is>
+      <c r="A264" t="n">
+        <v>825827</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -5716,10 +5190,8 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>1891535</t>
-        </is>
+      <c r="A265" t="n">
+        <v>1891535</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -5736,10 +5208,8 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>451804</t>
-        </is>
+      <c r="A266" t="n">
+        <v>451804</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -5756,10 +5226,8 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>676457</t>
-        </is>
+      <c r="A267" t="n">
+        <v>676457</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -5776,10 +5244,8 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>2315685</t>
-        </is>
+      <c r="A268" t="n">
+        <v>2315685</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -5796,10 +5262,8 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>256067</t>
-        </is>
+      <c r="A269" t="n">
+        <v>256067</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -5816,10 +5280,8 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>2484973</t>
-        </is>
+      <c r="A270" t="n">
+        <v>2484973</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -5836,10 +5298,8 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>622245</t>
-        </is>
+      <c r="A271" t="n">
+        <v>622245</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -5856,10 +5316,8 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>447408</t>
-        </is>
+      <c r="A272" t="n">
+        <v>447408</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -5876,10 +5334,8 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>2034206</t>
-        </is>
+      <c r="A273" t="n">
+        <v>2034206</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -5896,10 +5352,8 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>1806826</t>
-        </is>
+      <c r="A274" t="n">
+        <v>1806826</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -5916,10 +5370,8 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>1602354</t>
-        </is>
+      <c r="A275" t="n">
+        <v>1602354</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -5936,10 +5388,8 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>1697710</t>
-        </is>
+      <c r="A276" t="n">
+        <v>1697710</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -5956,10 +5406,8 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>1592327</t>
-        </is>
+      <c r="A277" t="n">
+        <v>1592327</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -5976,10 +5424,8 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>1932742</t>
-        </is>
+      <c r="A278" t="n">
+        <v>1932742</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -5996,10 +5442,8 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>466874</t>
-        </is>
+      <c r="A279" t="n">
+        <v>466874</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -6016,10 +5460,8 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>507303</t>
-        </is>
+      <c r="A280" t="n">
+        <v>507303</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -6036,10 +5478,8 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>621798</t>
-        </is>
+      <c r="A281" t="n">
+        <v>621798</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -6056,10 +5496,8 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>445653</t>
-        </is>
+      <c r="A282" t="n">
+        <v>445653</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -6076,10 +5514,8 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>1848682</t>
-        </is>
+      <c r="A283" t="n">
+        <v>1848682</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -6096,10 +5532,8 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>450636</t>
-        </is>
+      <c r="A284" t="n">
+        <v>450636</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -6116,10 +5550,8 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>1855597</t>
-        </is>
+      <c r="A285" t="n">
+        <v>1855597</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
@@ -6136,10 +5568,8 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>1908791</t>
-        </is>
+      <c r="A286" t="n">
+        <v>1908791</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -6156,10 +5586,8 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>117336</t>
-        </is>
+      <c r="A287" t="n">
+        <v>117336</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -6176,10 +5604,8 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>1849135</t>
-        </is>
+      <c r="A288" t="n">
+        <v>1849135</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -6196,10 +5622,8 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>388587</t>
-        </is>
+      <c r="A289" t="n">
+        <v>388587</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
@@ -6216,10 +5640,8 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>1643041</t>
-        </is>
+      <c r="A290" t="n">
+        <v>1643041</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
@@ -6236,10 +5658,8 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>1305215</t>
-        </is>
+      <c r="A291" t="n">
+        <v>1305215</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -6256,10 +5676,8 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>1732718</t>
-        </is>
+      <c r="A292" t="n">
+        <v>1732718</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -6276,10 +5694,8 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>52038</t>
-        </is>
+      <c r="A293" t="n">
+        <v>52038</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -6296,10 +5712,8 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>457149</t>
-        </is>
+      <c r="A294" t="n">
+        <v>457149</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
@@ -6316,10 +5730,8 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>182273</t>
-        </is>
+      <c r="A295" t="n">
+        <v>182273</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
@@ -6336,10 +5748,8 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>447762</t>
-        </is>
+      <c r="A296" t="n">
+        <v>447762</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
@@ -6356,10 +5766,8 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>1488453</t>
-        </is>
+      <c r="A297" t="n">
+        <v>1488453</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
@@ -6376,10 +5784,8 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>511701</t>
-        </is>
+      <c r="A298" t="n">
+        <v>511701</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
@@ -6396,10 +5802,8 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>2921860</t>
-        </is>
+      <c r="A299" t="n">
+        <v>2921860</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
@@ -6416,10 +5820,8 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>156306</t>
-        </is>
+      <c r="A300" t="n">
+        <v>156306</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
@@ -6436,10 +5838,8 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>293893</t>
-        </is>
+      <c r="A301" t="n">
+        <v>293893</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
@@ -6456,10 +5856,8 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>393249</t>
-        </is>
+      <c r="A302" t="n">
+        <v>393249</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
@@ -6476,10 +5874,8 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>1670138</t>
-        </is>
+      <c r="A303" t="n">
+        <v>1670138</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
@@ -6496,10 +5892,8 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>448069</t>
-        </is>
+      <c r="A304" t="n">
+        <v>448069</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
@@ -6516,10 +5910,8 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>451288</t>
-        </is>
+      <c r="A305" t="n">
+        <v>451288</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
@@ -6536,10 +5928,8 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>525971</t>
-        </is>
+      <c r="A306" t="n">
+        <v>525971</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
@@ -6556,10 +5946,8 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>452894</t>
-        </is>
+      <c r="A307" t="n">
+        <v>452894</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
@@ -6576,10 +5964,8 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>1787560</t>
-        </is>
+      <c r="A308" t="n">
+        <v>1787560</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
@@ -6596,10 +5982,8 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>339841</t>
-        </is>
+      <c r="A309" t="n">
+        <v>339841</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
@@ -6616,10 +6000,8 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>366006</t>
-        </is>
+      <c r="A310" t="n">
+        <v>366006</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
@@ -6636,10 +6018,8 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>1847037</t>
-        </is>
+      <c r="A311" t="n">
+        <v>1847037</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
@@ -6656,10 +6036,8 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>448178</t>
-        </is>
+      <c r="A312" t="n">
+        <v>448178</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
@@ -6676,10 +6054,8 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>1794483</t>
-        </is>
+      <c r="A313" t="n">
+        <v>1794483</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
@@ -6696,10 +6072,8 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>2626367</t>
-        </is>
+      <c r="A314" t="n">
+        <v>2626367</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
@@ -6716,10 +6090,8 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>890265</t>
-        </is>
+      <c r="A315" t="n">
+        <v>890265</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
@@ -6736,10 +6108,8 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>510143</t>
-        </is>
+      <c r="A316" t="n">
+        <v>510143</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
@@ -6756,10 +6126,8 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>19383</t>
-        </is>
+      <c r="A317" t="n">
+        <v>19383</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
@@ -6776,10 +6144,8 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>471306</t>
-        </is>
+      <c r="A318" t="n">
+        <v>471306</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
@@ -6796,10 +6162,8 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>1881742</t>
-        </is>
+      <c r="A319" t="n">
+        <v>1881742</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
@@ -6816,10 +6180,8 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>499159</t>
-        </is>
+      <c r="A320" t="n">
+        <v>499159</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
@@ -6836,10 +6198,8 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>1864091</t>
-        </is>
+      <c r="A321" t="n">
+        <v>1864091</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
@@ -6856,10 +6216,8 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>428475</t>
-        </is>
+      <c r="A322" t="n">
+        <v>428475</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
@@ -6876,10 +6234,8 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>1849442</t>
-        </is>
+      <c r="A323" t="n">
+        <v>1849442</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
@@ -6896,10 +6252,8 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>139966</t>
-        </is>
+      <c r="A324" t="n">
+        <v>139966</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
@@ -6916,10 +6270,8 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>473447</t>
-        </is>
+      <c r="A325" t="n">
+        <v>473447</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
@@ -6936,10 +6288,8 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>2453815</t>
-        </is>
+      <c r="A326" t="n">
+        <v>2453815</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
@@ -6956,10 +6306,8 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>1690074</t>
-        </is>
+      <c r="A327" t="n">
+        <v>1690074</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
@@ -6976,10 +6324,8 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>495979</t>
-        </is>
+      <c r="A328" t="n">
+        <v>495979</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
@@ -6996,10 +6342,8 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>2037647</t>
-        </is>
+      <c r="A329" t="n">
+        <v>2037647</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
@@ -7016,10 +6360,8 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>446395</t>
-        </is>
+      <c r="A330" t="n">
+        <v>446395</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
@@ -7036,10 +6378,8 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>501208</t>
-        </is>
+      <c r="A331" t="n">
+        <v>501208</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
@@ -7056,10 +6396,8 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>1388562</t>
-        </is>
+      <c r="A332" t="n">
+        <v>1388562</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
@@ -7076,10 +6414,8 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>2857980</t>
-        </is>
+      <c r="A333" t="n">
+        <v>2857980</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
@@ -7096,10 +6432,8 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>492050</t>
-        </is>
+      <c r="A334" t="n">
+        <v>492050</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
@@ -7116,10 +6450,8 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>1575908</t>
-        </is>
+      <c r="A335" t="n">
+        <v>1575908</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
@@ -7136,10 +6468,8 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>1505642</t>
-        </is>
+      <c r="A336" t="n">
+        <v>1505642</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
@@ -7156,10 +6486,8 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>1233664</t>
-        </is>
+      <c r="A337" t="n">
+        <v>1233664</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
@@ -7176,10 +6504,8 @@
       </c>
     </row>
     <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>1884936</t>
-        </is>
+      <c r="A338" t="n">
+        <v>1884936</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
@@ -7196,10 +6522,8 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>451633</t>
-        </is>
+      <c r="A339" t="n">
+        <v>451633</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
@@ -7216,10 +6540,8 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>1870874</t>
-        </is>
+      <c r="A340" t="n">
+        <v>1870874</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
@@ -7236,10 +6558,8 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>1574745</t>
-        </is>
+      <c r="A341" t="n">
+        <v>1574745</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
@@ -7256,10 +6576,8 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>1509626</t>
-        </is>
+      <c r="A342" t="n">
+        <v>1509626</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
@@ -7276,10 +6594,8 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>407330</t>
-        </is>
+      <c r="A343" t="n">
+        <v>407330</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
@@ -7296,10 +6612,8 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>1774549</t>
-        </is>
+      <c r="A344" t="n">
+        <v>1774549</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
@@ -7316,10 +6630,8 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>1850399</t>
-        </is>
+      <c r="A345" t="n">
+        <v>1850399</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
@@ -7336,10 +6648,8 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>1916143</t>
-        </is>
+      <c r="A346" t="n">
+        <v>1916143</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
@@ -7356,10 +6666,8 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>63694</t>
-        </is>
+      <c r="A347" t="n">
+        <v>63694</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
@@ -7376,10 +6684,8 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>1499302</t>
-        </is>
+      <c r="A348" t="n">
+        <v>1499302</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
@@ -7396,10 +6702,8 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>2361593</t>
-        </is>
+      <c r="A349" t="n">
+        <v>2361593</v>
       </c>
       <c r="B349" t="inlineStr">
         <is>
@@ -7416,10 +6720,8 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>1631361</t>
-        </is>
+      <c r="A350" t="n">
+        <v>1631361</v>
       </c>
       <c r="B350" t="inlineStr">
         <is>
@@ -7436,10 +6738,8 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>126897</t>
-        </is>
+      <c r="A351" t="n">
+        <v>126897</v>
       </c>
       <c r="B351" t="inlineStr">
         <is>
@@ -7456,10 +6756,8 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>1740245</t>
-        </is>
+      <c r="A352" t="n">
+        <v>1740245</v>
       </c>
       <c r="B352" t="inlineStr">
         <is>
@@ -7476,10 +6774,8 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>1849172</t>
-        </is>
+      <c r="A353" t="n">
+        <v>1849172</v>
       </c>
       <c r="B353" t="inlineStr">
         <is>
@@ -7496,10 +6792,8 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>1888857</t>
-        </is>
+      <c r="A354" t="n">
+        <v>1888857</v>
       </c>
       <c r="B354" t="inlineStr">
         <is>
@@ -7516,10 +6810,8 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>283476</t>
-        </is>
+      <c r="A355" t="n">
+        <v>283476</v>
       </c>
       <c r="B355" t="inlineStr">
         <is>
@@ -7536,10 +6828,8 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>521101</t>
-        </is>
+      <c r="A356" t="n">
+        <v>521101</v>
       </c>
       <c r="B356" t="inlineStr">
         <is>
@@ -7556,10 +6846,8 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>1851719</t>
-        </is>
+      <c r="A357" t="n">
+        <v>1851719</v>
       </c>
       <c r="B357" t="inlineStr">
         <is>
@@ -7576,10 +6864,8 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>1519925</t>
-        </is>
+      <c r="A358" t="n">
+        <v>1519925</v>
       </c>
       <c r="B358" t="inlineStr">
         <is>
@@ -7596,10 +6882,8 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>425402</t>
-        </is>
+      <c r="A359" t="n">
+        <v>425402</v>
       </c>
       <c r="B359" t="inlineStr">
         <is>
@@ -7616,10 +6900,8 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>445641</t>
-        </is>
+      <c r="A360" t="n">
+        <v>445641</v>
       </c>
       <c r="B360" t="inlineStr">
         <is>
@@ -7636,10 +6918,8 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>1901961</t>
-        </is>
+      <c r="A361" t="n">
+        <v>1901961</v>
       </c>
       <c r="B361" t="inlineStr">
         <is>
@@ -7656,10 +6936,8 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>468137</t>
-        </is>
+      <c r="A362" t="n">
+        <v>468137</v>
       </c>
       <c r="B362" t="inlineStr">
         <is>
@@ -7676,10 +6954,8 @@
       </c>
     </row>
     <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>1865809</t>
-        </is>
+      <c r="A363" t="n">
+        <v>1865809</v>
       </c>
       <c r="B363" t="inlineStr">
         <is>
@@ -7696,10 +6972,8 @@
       </c>
     </row>
     <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>2362800</t>
-        </is>
+      <c r="A364" t="n">
+        <v>2362800</v>
       </c>
       <c r="B364" t="inlineStr">
         <is>
@@ -7716,10 +6990,8 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>1847450</t>
-        </is>
+      <c r="A365" t="n">
+        <v>1847450</v>
       </c>
       <c r="B365" t="inlineStr">
         <is>
@@ -7736,10 +7008,8 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>435632</t>
-        </is>
+      <c r="A366" t="n">
+        <v>435632</v>
       </c>
       <c r="B366" t="inlineStr">
         <is>
@@ -7756,10 +7026,8 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>99441</t>
-        </is>
+      <c r="A367" t="n">
+        <v>99441</v>
       </c>
       <c r="B367" t="inlineStr">
         <is>
@@ -7776,10 +7044,8 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>531944</t>
-        </is>
+      <c r="A368" t="n">
+        <v>531944</v>
       </c>
       <c r="B368" t="inlineStr">
         <is>
@@ -7796,10 +7062,8 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>2611637</t>
-        </is>
+      <c r="A369" t="n">
+        <v>2611637</v>
       </c>
       <c r="B369" t="inlineStr">
         <is>
@@ -7816,10 +7080,8 @@
       </c>
     </row>
     <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>1833734</t>
-        </is>
+      <c r="A370" t="n">
+        <v>1833734</v>
       </c>
       <c r="B370" t="inlineStr">
         <is>
@@ -7836,10 +7098,8 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>136999</t>
-        </is>
+      <c r="A371" t="n">
+        <v>136999</v>
       </c>
       <c r="B371" t="inlineStr">
         <is>
@@ -7856,10 +7116,8 @@
       </c>
     </row>
     <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>2898043</t>
-        </is>
+      <c r="A372" t="n">
+        <v>2898043</v>
       </c>
       <c r="B372" t="inlineStr">
         <is>
@@ -7876,10 +7134,8 @@
       </c>
     </row>
     <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>1725581</t>
-        </is>
+      <c r="A373" t="n">
+        <v>1725581</v>
       </c>
       <c r="B373" t="inlineStr">
         <is>
@@ -7896,10 +7152,8 @@
       </c>
     </row>
     <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>504626</t>
-        </is>
+      <c r="A374" t="n">
+        <v>504626</v>
       </c>
       <c r="B374" t="inlineStr">
         <is>
@@ -7916,10 +7170,8 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>454947</t>
-        </is>
+      <c r="A375" t="n">
+        <v>454947</v>
       </c>
       <c r="B375" t="inlineStr">
         <is>
@@ -7936,10 +7188,8 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>2729221</t>
-        </is>
+      <c r="A376" t="n">
+        <v>2729221</v>
       </c>
       <c r="B376" t="inlineStr">
         <is>
@@ -7956,10 +7206,8 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>263960</t>
-        </is>
+      <c r="A377" t="n">
+        <v>263960</v>
       </c>
       <c r="B377" t="inlineStr">
         <is>
@@ -7976,10 +7224,8 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>1635488</t>
-        </is>
+      <c r="A378" t="n">
+        <v>1635488</v>
       </c>
       <c r="B378" t="inlineStr">
         <is>
@@ -7996,10 +7242,8 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>2654787</t>
-        </is>
+      <c r="A379" t="n">
+        <v>2654787</v>
       </c>
       <c r="B379" t="inlineStr">
         <is>
@@ -8016,10 +7260,8 @@
       </c>
     </row>
     <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>2622738</t>
-        </is>
+      <c r="A380" t="n">
+        <v>2622738</v>
       </c>
       <c r="B380" t="inlineStr">
         <is>
@@ -8036,10 +7278,8 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>1202621</t>
-        </is>
+      <c r="A381" t="n">
+        <v>1202621</v>
       </c>
       <c r="B381" t="inlineStr">
         <is>
@@ -8056,10 +7296,8 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>1853596</t>
-        </is>
+      <c r="A382" t="n">
+        <v>1853596</v>
       </c>
       <c r="B382" t="inlineStr">
         <is>
@@ -8076,10 +7314,8 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>1519581</t>
-        </is>
+      <c r="A383" t="n">
+        <v>1519581</v>
       </c>
       <c r="B383" t="inlineStr">
         <is>
@@ -8096,10 +7332,8 @@
       </c>
     </row>
     <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>591101</t>
-        </is>
+      <c r="A384" t="n">
+        <v>591101</v>
       </c>
       <c r="B384" t="inlineStr">
         <is>
@@ -8116,10 +7350,8 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>1187628</t>
-        </is>
+      <c r="A385" t="n">
+        <v>1187628</v>
       </c>
       <c r="B385" t="inlineStr">
         <is>
@@ -8136,10 +7368,8 @@
       </c>
     </row>
     <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>1199726</t>
-        </is>
+      <c r="A386" t="n">
+        <v>1199726</v>
       </c>
       <c r="B386" t="inlineStr">
         <is>
@@ -8156,10 +7386,8 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>2401840</t>
-        </is>
+      <c r="A387" t="n">
+        <v>2401840</v>
       </c>
       <c r="B387" t="inlineStr">
         <is>
@@ -8176,10 +7404,8 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>531606</t>
-        </is>
+      <c r="A388" t="n">
+        <v>531606</v>
       </c>
       <c r="B388" t="inlineStr">
         <is>
@@ -8196,10 +7422,8 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>1949929</t>
-        </is>
+      <c r="A389" t="n">
+        <v>1949929</v>
       </c>
       <c r="B389" t="inlineStr">
         <is>
@@ -8216,10 +7440,8 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>276575</t>
-        </is>
+      <c r="A390" t="n">
+        <v>276575</v>
       </c>
       <c r="B390" t="inlineStr">
         <is>
@@ -8236,10 +7458,8 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>2085112</t>
-        </is>
+      <c r="A391" t="n">
+        <v>2085112</v>
       </c>
       <c r="B391" t="inlineStr">
         <is>
@@ -8256,10 +7476,8 @@
       </c>
     </row>
     <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>114840</t>
-        </is>
+      <c r="A392" t="n">
+        <v>114840</v>
       </c>
       <c r="B392" t="inlineStr">
         <is>
@@ -8276,10 +7494,8 @@
       </c>
     </row>
     <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>784861</t>
-        </is>
+      <c r="A393" t="n">
+        <v>784861</v>
       </c>
       <c r="B393" t="inlineStr">
         <is>
@@ -8296,10 +7512,8 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>247398</t>
-        </is>
+      <c r="A394" t="n">
+        <v>247398</v>
       </c>
       <c r="B394" t="inlineStr">
         <is>
@@ -8316,10 +7530,8 @@
       </c>
     </row>
     <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>445987</t>
-        </is>
+      <c r="A395" t="n">
+        <v>445987</v>
       </c>
       <c r="B395" t="inlineStr">
         <is>
@@ -8336,10 +7548,8 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>1825520</t>
-        </is>
+      <c r="A396" t="n">
+        <v>1825520</v>
       </c>
       <c r="B396" t="inlineStr">
         <is>
@@ -8356,10 +7566,8 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>1892559</t>
-        </is>
+      <c r="A397" t="n">
+        <v>1892559</v>
       </c>
       <c r="B397" t="inlineStr">
         <is>
@@ -8376,10 +7584,8 @@
       </c>
     </row>
     <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>1851389</t>
-        </is>
+      <c r="A398" t="n">
+        <v>1851389</v>
       </c>
       <c r="B398" t="inlineStr">
         <is>
@@ -8396,10 +7602,8 @@
       </c>
     </row>
     <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>437309</t>
-        </is>
+      <c r="A399" t="n">
+        <v>437309</v>
       </c>
       <c r="B399" t="inlineStr">
         <is>
@@ -8416,10 +7620,8 @@
       </c>
     </row>
     <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>2747305</t>
-        </is>
+      <c r="A400" t="n">
+        <v>2747305</v>
       </c>
       <c r="B400" t="inlineStr">
         <is>
@@ -8436,10 +7638,8 @@
       </c>
     </row>
     <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>449051</t>
-        </is>
+      <c r="A401" t="n">
+        <v>449051</v>
       </c>
       <c r="B401" t="inlineStr">
         <is>
@@ -8456,10 +7656,8 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" t="inlineStr">
-        <is>
-          <t>943592</t>
-        </is>
+      <c r="A402" t="n">
+        <v>943592</v>
       </c>
       <c r="B402" t="inlineStr">
         <is>
@@ -8476,10 +7674,8 @@
       </c>
     </row>
     <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>2687826</t>
-        </is>
+      <c r="A403" t="n">
+        <v>2687826</v>
       </c>
       <c r="B403" t="inlineStr">
         <is>
@@ -8496,10 +7692,8 @@
       </c>
     </row>
     <row r="404">
-      <c r="A404" t="inlineStr">
-        <is>
-          <t>1878983</t>
-        </is>
+      <c r="A404" t="n">
+        <v>1878983</v>
       </c>
       <c r="B404" t="inlineStr">
         <is>
@@ -8516,10 +7710,8 @@
       </c>
     </row>
     <row r="405">
-      <c r="A405" t="inlineStr">
-        <is>
-          <t>1094153</t>
-        </is>
+      <c r="A405" t="n">
+        <v>1094153</v>
       </c>
       <c r="B405" t="inlineStr">
         <is>
@@ -8536,10 +7728,8 @@
       </c>
     </row>
     <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>271937</t>
-        </is>
+      <c r="A406" t="n">
+        <v>271937</v>
       </c>
       <c r="B406" t="inlineStr">
         <is>
@@ -8556,10 +7746,8 @@
       </c>
     </row>
     <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>510747</t>
-        </is>
+      <c r="A407" t="n">
+        <v>510747</v>
       </c>
       <c r="B407" t="inlineStr">
         <is>
@@ -8576,10 +7764,8 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>465109</t>
-        </is>
+      <c r="A408" t="n">
+        <v>465109</v>
       </c>
       <c r="B408" t="inlineStr">
         <is>
@@ -8596,10 +7782,8 @@
       </c>
     </row>
     <row r="409">
-      <c r="A409" t="inlineStr">
-        <is>
-          <t>1436416</t>
-        </is>
+      <c r="A409" t="n">
+        <v>1436416</v>
       </c>
       <c r="B409" t="inlineStr">
         <is>
@@ -8616,10 +7800,8 @@
       </c>
     </row>
     <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>643546</t>
-        </is>
+      <c r="A410" t="n">
+        <v>643546</v>
       </c>
       <c r="B410" t="inlineStr">
         <is>
@@ -8636,10 +7818,8 @@
       </c>
     </row>
     <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>2785317</t>
-        </is>
+      <c r="A411" t="n">
+        <v>2785317</v>
       </c>
       <c r="B411" t="inlineStr">
         <is>
@@ -8656,10 +7836,8 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>68693</t>
-        </is>
+      <c r="A412" t="n">
+        <v>68693</v>
       </c>
       <c r="B412" t="inlineStr">
         <is>
@@ -8676,10 +7854,8 @@
       </c>
     </row>
     <row r="413">
-      <c r="A413" t="inlineStr">
-        <is>
-          <t>448294</t>
-        </is>
+      <c r="A413" t="n">
+        <v>448294</v>
       </c>
       <c r="B413" t="inlineStr">
         <is>
@@ -8696,10 +7872,8 @@
       </c>
     </row>
     <row r="414">
-      <c r="A414" t="inlineStr">
-        <is>
-          <t>1849695</t>
-        </is>
+      <c r="A414" t="n">
+        <v>1849695</v>
       </c>
       <c r="B414" t="inlineStr">
         <is>
@@ -8716,10 +7890,8 @@
       </c>
     </row>
     <row r="415">
-      <c r="A415" t="inlineStr">
-        <is>
-          <t>2001799</t>
-        </is>
+      <c r="A415" t="n">
+        <v>2001799</v>
       </c>
       <c r="B415" t="inlineStr">
         <is>
@@ -8736,10 +7908,8 @@
       </c>
     </row>
     <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>1224793</t>
-        </is>
+      <c r="A416" t="n">
+        <v>1224793</v>
       </c>
       <c r="B416" t="inlineStr">
         <is>
@@ -8756,10 +7926,8 @@
       </c>
     </row>
     <row r="417">
-      <c r="A417" t="inlineStr">
-        <is>
-          <t>390591</t>
-        </is>
+      <c r="A417" t="n">
+        <v>390591</v>
       </c>
       <c r="B417" t="inlineStr">
         <is>
@@ -8776,10 +7944,8 @@
       </c>
     </row>
     <row r="418">
-      <c r="A418" t="inlineStr">
-        <is>
-          <t>39372</t>
-        </is>
+      <c r="A418" t="n">
+        <v>39372</v>
       </c>
       <c r="B418" t="inlineStr">
         <is>
@@ -8796,10 +7962,8 @@
       </c>
     </row>
     <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>1904568</t>
-        </is>
+      <c r="A419" t="n">
+        <v>1904568</v>
       </c>
       <c r="B419" t="inlineStr">
         <is>
@@ -8816,10 +7980,8 @@
       </c>
     </row>
     <row r="420">
-      <c r="A420" t="inlineStr">
-        <is>
-          <t>2563869</t>
-        </is>
+      <c r="A420" t="n">
+        <v>2563869</v>
       </c>
       <c r="B420" t="inlineStr">
         <is>
@@ -8836,10 +7998,8 @@
       </c>
     </row>
     <row r="421">
-      <c r="A421" t="inlineStr">
-        <is>
-          <t>1849355</t>
-        </is>
+      <c r="A421" t="n">
+        <v>1849355</v>
       </c>
       <c r="B421" t="inlineStr">
         <is>
@@ -8856,10 +8016,8 @@
       </c>
     </row>
     <row r="422">
-      <c r="A422" t="inlineStr">
-        <is>
-          <t>1364048</t>
-        </is>
+      <c r="A422" t="n">
+        <v>1364048</v>
       </c>
       <c r="B422" t="inlineStr">
         <is>
@@ -8876,10 +8034,8 @@
       </c>
     </row>
     <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>1485736</t>
-        </is>
+      <c r="A423" t="n">
+        <v>1485736</v>
       </c>
       <c r="B423" t="inlineStr">
         <is>
@@ -8896,10 +8052,8 @@
       </c>
     </row>
     <row r="424">
-      <c r="A424" t="inlineStr">
-        <is>
-          <t>2474707</t>
-        </is>
+      <c r="A424" t="n">
+        <v>2474707</v>
       </c>
       <c r="B424" t="inlineStr">
         <is>
@@ -8916,10 +8070,8 @@
       </c>
     </row>
     <row r="425">
-      <c r="A425" t="inlineStr">
-        <is>
-          <t>1382863</t>
-        </is>
+      <c r="A425" t="n">
+        <v>1382863</v>
       </c>
       <c r="B425" t="inlineStr">
         <is>
@@ -8936,10 +8088,8 @@
       </c>
     </row>
     <row r="426">
-      <c r="A426" t="inlineStr">
-        <is>
-          <t>424095</t>
-        </is>
+      <c r="A426" t="n">
+        <v>424095</v>
       </c>
       <c r="B426" t="inlineStr">
         <is>
@@ -8956,10 +8106,8 @@
       </c>
     </row>
     <row r="427">
-      <c r="A427" t="inlineStr">
-        <is>
-          <t>2711078</t>
-        </is>
+      <c r="A427" t="n">
+        <v>2711078</v>
       </c>
       <c r="B427" t="inlineStr">
         <is>
@@ -8976,10 +8124,8 @@
       </c>
     </row>
     <row r="428">
-      <c r="A428" t="inlineStr">
-        <is>
-          <t>1636783</t>
-        </is>
+      <c r="A428" t="n">
+        <v>1636783</v>
       </c>
       <c r="B428" t="inlineStr">
         <is>
@@ -8996,10 +8142,8 @@
       </c>
     </row>
     <row r="429">
-      <c r="A429" t="inlineStr">
-        <is>
-          <t>904606</t>
-        </is>
+      <c r="A429" t="n">
+        <v>904606</v>
       </c>
       <c r="B429" t="inlineStr">
         <is>
@@ -9016,10 +8160,8 @@
       </c>
     </row>
     <row r="430">
-      <c r="A430" t="inlineStr">
-        <is>
-          <t>262822</t>
-        </is>
+      <c r="A430" t="n">
+        <v>262822</v>
       </c>
       <c r="B430" t="inlineStr">
         <is>
@@ -9036,10 +8178,8 @@
       </c>
     </row>
     <row r="431">
-      <c r="A431" t="inlineStr">
-        <is>
-          <t>531112</t>
-        </is>
+      <c r="A431" t="n">
+        <v>531112</v>
       </c>
       <c r="B431" t="inlineStr">
         <is>
@@ -9056,10 +8196,8 @@
       </c>
     </row>
     <row r="432">
-      <c r="A432" t="inlineStr">
-        <is>
-          <t>643474</t>
-        </is>
+      <c r="A432" t="n">
+        <v>643474</v>
       </c>
       <c r="B432" t="inlineStr">
         <is>
@@ -9076,10 +8214,8 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" t="inlineStr">
-        <is>
-          <t>150008</t>
-        </is>
+      <c r="A433" t="n">
+        <v>150008</v>
       </c>
       <c r="B433" t="inlineStr">
         <is>
@@ -9096,10 +8232,8 @@
       </c>
     </row>
     <row r="434">
-      <c r="A434" t="inlineStr">
-        <is>
-          <t>1399874</t>
-        </is>
+      <c r="A434" t="n">
+        <v>1399874</v>
       </c>
       <c r="B434" t="inlineStr">
         <is>
@@ -9116,10 +8250,8 @@
       </c>
     </row>
     <row r="435">
-      <c r="A435" t="inlineStr">
-        <is>
-          <t>1850667</t>
-        </is>
+      <c r="A435" t="n">
+        <v>1850667</v>
       </c>
       <c r="B435" t="inlineStr">
         <is>
@@ -9136,10 +8268,8 @@
       </c>
     </row>
     <row r="436">
-      <c r="A436" t="inlineStr">
-        <is>
-          <t>2298171</t>
-        </is>
+      <c r="A436" t="n">
+        <v>2298171</v>
       </c>
       <c r="B436" t="inlineStr">
         <is>
@@ -9156,10 +8286,8 @@
       </c>
     </row>
     <row r="437">
-      <c r="A437" t="inlineStr">
-        <is>
-          <t>2183306</t>
-        </is>
+      <c r="A437" t="n">
+        <v>2183306</v>
       </c>
       <c r="B437" t="inlineStr">
         <is>
@@ -9176,10 +8304,8 @@
       </c>
     </row>
     <row r="438">
-      <c r="A438" t="inlineStr">
-        <is>
-          <t>1990289</t>
-        </is>
+      <c r="A438" t="n">
+        <v>1990289</v>
       </c>
       <c r="B438" t="inlineStr">
         <is>
@@ -9196,10 +8322,8 @@
       </c>
     </row>
     <row r="439">
-      <c r="A439" t="inlineStr">
-        <is>
-          <t>783138</t>
-        </is>
+      <c r="A439" t="n">
+        <v>783138</v>
       </c>
       <c r="B439" t="inlineStr">
         <is>
@@ -9216,10 +8340,8 @@
       </c>
     </row>
     <row r="440">
-      <c r="A440" t="inlineStr">
-        <is>
-          <t>1600970</t>
-        </is>
+      <c r="A440" t="n">
+        <v>1600970</v>
       </c>
       <c r="B440" t="inlineStr">
         <is>
@@ -9236,10 +8358,8 @@
       </c>
     </row>
     <row r="441">
-      <c r="A441" t="inlineStr">
-        <is>
-          <t>1634899</t>
-        </is>
+      <c r="A441" t="n">
+        <v>1634899</v>
       </c>
       <c r="B441" t="inlineStr">
         <is>
@@ -9256,10 +8376,8 @@
       </c>
     </row>
     <row r="442">
-      <c r="A442" t="inlineStr">
-        <is>
-          <t>425484</t>
-        </is>
+      <c r="A442" t="n">
+        <v>425484</v>
       </c>
       <c r="B442" t="inlineStr">
         <is>
@@ -9276,10 +8394,8 @@
       </c>
     </row>
     <row r="443">
-      <c r="A443" t="inlineStr">
-        <is>
-          <t>1225884</t>
-        </is>
+      <c r="A443" t="n">
+        <v>1225884</v>
       </c>
       <c r="B443" t="inlineStr">
         <is>
@@ -9296,10 +8412,8 @@
       </c>
     </row>
     <row r="444">
-      <c r="A444" t="inlineStr">
-        <is>
-          <t>1757780</t>
-        </is>
+      <c r="A444" t="n">
+        <v>1757780</v>
       </c>
       <c r="B444" t="inlineStr">
         <is>
@@ -9316,10 +8430,8 @@
       </c>
     </row>
     <row r="445">
-      <c r="A445" t="inlineStr">
-        <is>
-          <t>1602876</t>
-        </is>
+      <c r="A445" t="n">
+        <v>1602876</v>
       </c>
       <c r="B445" t="inlineStr">
         <is>
@@ -9336,10 +8448,8 @@
       </c>
     </row>
     <row r="446">
-      <c r="A446" t="inlineStr">
-        <is>
-          <t>448584</t>
-        </is>
+      <c r="A446" t="n">
+        <v>448584</v>
       </c>
       <c r="B446" t="inlineStr">
         <is>
@@ -9356,10 +8466,8 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" t="inlineStr">
-        <is>
-          <t>473178</t>
-        </is>
+      <c r="A447" t="n">
+        <v>473178</v>
       </c>
       <c r="B447" t="inlineStr">
         <is>
@@ -9376,10 +8484,8 @@
       </c>
     </row>
     <row r="448">
-      <c r="A448" t="inlineStr">
-        <is>
-          <t>219268</t>
-        </is>
+      <c r="A448" t="n">
+        <v>219268</v>
       </c>
       <c r="B448" t="inlineStr">
         <is>
@@ -9396,10 +8502,8 @@
       </c>
     </row>
     <row r="449">
-      <c r="A449" t="inlineStr">
-        <is>
-          <t>449912</t>
-        </is>
+      <c r="A449" t="n">
+        <v>449912</v>
       </c>
       <c r="B449" t="inlineStr">
         <is>
@@ -9416,10 +8520,8 @@
       </c>
     </row>
     <row r="450">
-      <c r="A450" t="inlineStr">
-        <is>
-          <t>1750738</t>
-        </is>
+      <c r="A450" t="n">
+        <v>1750738</v>
       </c>
       <c r="B450" t="inlineStr">
         <is>
@@ -9436,10 +8538,8 @@
       </c>
     </row>
     <row r="451">
-      <c r="A451" t="inlineStr">
-        <is>
-          <t>452139</t>
-        </is>
+      <c r="A451" t="n">
+        <v>452139</v>
       </c>
       <c r="B451" t="inlineStr">
         <is>
@@ -9456,10 +8556,8 @@
       </c>
     </row>
     <row r="452">
-      <c r="A452" t="inlineStr">
-        <is>
-          <t>899324</t>
-        </is>
+      <c r="A452" t="n">
+        <v>899324</v>
       </c>
       <c r="B452" t="inlineStr">
         <is>
@@ -9476,10 +8574,8 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" t="inlineStr">
-        <is>
-          <t>1649886</t>
-        </is>
+      <c r="A453" t="n">
+        <v>1649886</v>
       </c>
       <c r="B453" t="inlineStr">
         <is>
@@ -9496,10 +8592,8 @@
       </c>
     </row>
     <row r="454">
-      <c r="A454" t="inlineStr">
-        <is>
-          <t>1157167</t>
-        </is>
+      <c r="A454" t="n">
+        <v>1157167</v>
       </c>
       <c r="B454" t="inlineStr">
         <is>
@@ -9516,10 +8610,8 @@
       </c>
     </row>
     <row r="455">
-      <c r="A455" t="inlineStr">
-        <is>
-          <t>2868122</t>
-        </is>
+      <c r="A455" t="n">
+        <v>2868122</v>
       </c>
       <c r="B455" t="inlineStr">
         <is>
@@ -9536,10 +8628,8 @@
       </c>
     </row>
     <row r="456">
-      <c r="A456" t="inlineStr">
-        <is>
-          <t>426717</t>
-        </is>
+      <c r="A456" t="n">
+        <v>426717</v>
       </c>
       <c r="B456" t="inlineStr">
         <is>
@@ -9556,10 +8646,8 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="inlineStr">
-        <is>
-          <t>1915432</t>
-        </is>
+      <c r="A457" t="n">
+        <v>1915432</v>
       </c>
       <c r="B457" t="inlineStr">
         <is>
@@ -9576,10 +8664,8 @@
       </c>
     </row>
     <row r="458">
-      <c r="A458" t="inlineStr">
-        <is>
-          <t>472018</t>
-        </is>
+      <c r="A458" t="n">
+        <v>472018</v>
       </c>
       <c r="B458" t="inlineStr">
         <is>
@@ -9596,10 +8682,8 @@
       </c>
     </row>
     <row r="459">
-      <c r="A459" t="inlineStr">
-        <is>
-          <t>878504</t>
-        </is>
+      <c r="A459" t="n">
+        <v>878504</v>
       </c>
       <c r="B459" t="inlineStr">
         <is>
@@ -9616,10 +8700,8 @@
       </c>
     </row>
     <row r="460">
-      <c r="A460" t="inlineStr">
-        <is>
-          <t>1850772</t>
-        </is>
+      <c r="A460" t="n">
+        <v>1850772</v>
       </c>
       <c r="B460" t="inlineStr">
         <is>
@@ -9636,10 +8718,8 @@
       </c>
     </row>
     <row r="461">
-      <c r="A461" t="inlineStr">
-        <is>
-          <t>2398697</t>
-        </is>
+      <c r="A461" t="n">
+        <v>2398697</v>
       </c>
       <c r="B461" t="inlineStr">
         <is>
@@ -9656,10 +8736,8 @@
       </c>
     </row>
     <row r="462">
-      <c r="A462" t="inlineStr">
-        <is>
-          <t>451442</t>
-        </is>
+      <c r="A462" t="n">
+        <v>451442</v>
       </c>
       <c r="B462" t="inlineStr">
         <is>
@@ -9676,10 +8754,8 @@
       </c>
     </row>
     <row r="463">
-      <c r="A463" t="inlineStr">
-        <is>
-          <t>2272285</t>
-        </is>
+      <c r="A463" t="n">
+        <v>2272285</v>
       </c>
       <c r="B463" t="inlineStr">
         <is>
@@ -9696,10 +8772,8 @@
       </c>
     </row>
     <row r="464">
-      <c r="A464" t="inlineStr">
-        <is>
-          <t>454852</t>
-        </is>
+      <c r="A464" t="n">
+        <v>454852</v>
       </c>
       <c r="B464" t="inlineStr">
         <is>
@@ -9716,10 +8790,8 @@
       </c>
     </row>
     <row r="465">
-      <c r="A465" t="inlineStr">
-        <is>
-          <t>901187</t>
-        </is>
+      <c r="A465" t="n">
+        <v>901187</v>
       </c>
       <c r="B465" t="inlineStr">
         <is>
@@ -9736,10 +8808,8 @@
       </c>
     </row>
     <row r="466">
-      <c r="A466" t="inlineStr">
-        <is>
-          <t>449106</t>
-        </is>
+      <c r="A466" t="n">
+        <v>449106</v>
       </c>
       <c r="B466" t="inlineStr">
         <is>
@@ -9756,10 +8826,8 @@
       </c>
     </row>
     <row r="467">
-      <c r="A467" t="inlineStr">
-        <is>
-          <t>1926076</t>
-        </is>
+      <c r="A467" t="n">
+        <v>1926076</v>
       </c>
       <c r="B467" t="inlineStr">
         <is>
@@ -9776,10 +8844,8 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" t="inlineStr">
-        <is>
-          <t>437776</t>
-        </is>
+      <c r="A468" t="n">
+        <v>437776</v>
       </c>
       <c r="B468" t="inlineStr">
         <is>
@@ -9796,10 +8862,8 @@
       </c>
     </row>
     <row r="469">
-      <c r="A469" t="inlineStr">
-        <is>
-          <t>1738738</t>
-        </is>
+      <c r="A469" t="n">
+        <v>1738738</v>
       </c>
       <c r="B469" t="inlineStr">
         <is>
@@ -9816,10 +8880,8 @@
       </c>
     </row>
     <row r="470">
-      <c r="A470" t="inlineStr">
-        <is>
-          <t>1354570</t>
-        </is>
+      <c r="A470" t="n">
+        <v>1354570</v>
       </c>
       <c r="B470" t="inlineStr">
         <is>
@@ -9836,10 +8898,8 @@
       </c>
     </row>
     <row r="471">
-      <c r="A471" t="inlineStr">
-        <is>
-          <t>1811426</t>
-        </is>
+      <c r="A471" t="n">
+        <v>1811426</v>
       </c>
       <c r="B471" t="inlineStr">
         <is>
@@ -9856,10 +8916,8 @@
       </c>
     </row>
     <row r="472">
-      <c r="A472" t="inlineStr">
-        <is>
-          <t>2926510</t>
-        </is>
+      <c r="A472" t="n">
+        <v>2926510</v>
       </c>
       <c r="B472" t="inlineStr">
         <is>
@@ -9876,10 +8934,8 @@
       </c>
     </row>
     <row r="473">
-      <c r="A473" t="inlineStr">
-        <is>
-          <t>399319</t>
-        </is>
+      <c r="A473" t="n">
+        <v>399319</v>
       </c>
       <c r="B473" t="inlineStr">
         <is>
@@ -9896,10 +8952,8 @@
       </c>
     </row>
     <row r="474">
-      <c r="A474" t="inlineStr">
-        <is>
-          <t>1845508</t>
-        </is>
+      <c r="A474" t="n">
+        <v>1845508</v>
       </c>
       <c r="B474" t="inlineStr">
         <is>
@@ -9916,10 +8970,8 @@
       </c>
     </row>
     <row r="475">
-      <c r="A475" t="inlineStr">
-        <is>
-          <t>1872363</t>
-        </is>
+      <c r="A475" t="n">
+        <v>1872363</v>
       </c>
       <c r="B475" t="inlineStr">
         <is>
@@ -9936,10 +8988,8 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>311333</t>
-        </is>
+      <c r="A476" t="n">
+        <v>311333</v>
       </c>
       <c r="B476" t="inlineStr">
         <is>
@@ -9956,10 +9006,8 @@
       </c>
     </row>
     <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>469806</t>
-        </is>
+      <c r="A477" t="n">
+        <v>469806</v>
       </c>
       <c r="B477" t="inlineStr">
         <is>
@@ -9976,10 +9024,8 @@
       </c>
     </row>
     <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>664025</t>
-        </is>
+      <c r="A478" t="n">
+        <v>664025</v>
       </c>
       <c r="B478" t="inlineStr">
         <is>
@@ -9996,10 +9042,8 @@
       </c>
     </row>
     <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>1688494</t>
-        </is>
+      <c r="A479" t="n">
+        <v>1688494</v>
       </c>
       <c r="B479" t="inlineStr">
         <is>
@@ -10016,10 +9060,8 @@
       </c>
     </row>
     <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>471872</t>
-        </is>
+      <c r="A480" t="n">
+        <v>471872</v>
       </c>
       <c r="B480" t="inlineStr">
         <is>
@@ -10036,10 +9078,8 @@
       </c>
     </row>
     <row r="481">
-      <c r="A481" t="inlineStr">
-        <is>
-          <t>455056</t>
-        </is>
+      <c r="A481" t="n">
+        <v>455056</v>
       </c>
       <c r="B481" t="inlineStr">
         <is>
@@ -10056,10 +9096,8 @@
       </c>
     </row>
     <row r="482">
-      <c r="A482" t="inlineStr">
-        <is>
-          <t>1849198</t>
-        </is>
+      <c r="A482" t="n">
+        <v>1849198</v>
       </c>
       <c r="B482" t="inlineStr">
         <is>
@@ -10076,10 +9114,8 @@
       </c>
     </row>
     <row r="483">
-      <c r="A483" t="inlineStr">
-        <is>
-          <t>759494</t>
-        </is>
+      <c r="A483" t="n">
+        <v>759494</v>
       </c>
       <c r="B483" t="inlineStr">
         <is>
@@ -10096,10 +9132,8 @@
       </c>
     </row>
     <row r="484">
-      <c r="A484" t="inlineStr">
-        <is>
-          <t>2850673</t>
-        </is>
+      <c r="A484" t="n">
+        <v>2850673</v>
       </c>
       <c r="B484" t="inlineStr">
         <is>
@@ -10116,10 +9150,8 @@
       </c>
     </row>
     <row r="485">
-      <c r="A485" t="inlineStr">
-        <is>
-          <t>1666458</t>
-        </is>
+      <c r="A485" t="n">
+        <v>1666458</v>
       </c>
       <c r="B485" t="inlineStr">
         <is>
@@ -10136,10 +9168,8 @@
       </c>
     </row>
     <row r="486">
-      <c r="A486" t="inlineStr">
-        <is>
-          <t>789057</t>
-        </is>
+      <c r="A486" t="n">
+        <v>789057</v>
       </c>
       <c r="B486" t="inlineStr">
         <is>
@@ -10156,10 +9186,8 @@
       </c>
     </row>
     <row r="487">
-      <c r="A487" t="inlineStr">
-        <is>
-          <t>1792219</t>
-        </is>
+      <c r="A487" t="n">
+        <v>1792219</v>
       </c>
       <c r="B487" t="inlineStr">
         <is>
@@ -10176,10 +9204,8 @@
       </c>
     </row>
     <row r="488">
-      <c r="A488" t="inlineStr">
-        <is>
-          <t>1847092</t>
-        </is>
+      <c r="A488" t="n">
+        <v>1847092</v>
       </c>
       <c r="B488" t="inlineStr">
         <is>
@@ -10196,10 +9222,8 @@
       </c>
     </row>
     <row r="489">
-      <c r="A489" t="inlineStr">
-        <is>
-          <t>58692</t>
-        </is>
+      <c r="A489" t="n">
+        <v>58692</v>
       </c>
       <c r="B489" t="inlineStr">
         <is>
@@ -10216,10 +9240,8 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" t="inlineStr">
-        <is>
-          <t>525892</t>
-        </is>
+      <c r="A490" t="n">
+        <v>525892</v>
       </c>
       <c r="B490" t="inlineStr">
         <is>
@@ -10236,10 +9258,8 @@
       </c>
     </row>
     <row r="491">
-      <c r="A491" t="inlineStr">
-        <is>
-          <t>1481908</t>
-        </is>
+      <c r="A491" t="n">
+        <v>1481908</v>
       </c>
       <c r="B491" t="inlineStr">
         <is>
@@ -10256,10 +9276,8 @@
       </c>
     </row>
     <row r="492">
-      <c r="A492" t="inlineStr">
-        <is>
-          <t>474630</t>
-        </is>
+      <c r="A492" t="n">
+        <v>474630</v>
       </c>
       <c r="B492" t="inlineStr">
         <is>
@@ -10276,10 +9294,8 @@
       </c>
     </row>
     <row r="493">
-      <c r="A493" t="inlineStr">
-        <is>
-          <t>1316506</t>
-        </is>
+      <c r="A493" t="n">
+        <v>1316506</v>
       </c>
       <c r="B493" t="inlineStr">
         <is>
@@ -10296,10 +9312,8 @@
       </c>
     </row>
     <row r="494">
-      <c r="A494" t="inlineStr">
-        <is>
-          <t>1846583</t>
-        </is>
+      <c r="A494" t="n">
+        <v>1846583</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
@@ -10316,10 +9330,8 @@
       </c>
     </row>
     <row r="495">
-      <c r="A495" t="inlineStr">
-        <is>
-          <t>2534415</t>
-        </is>
+      <c r="A495" t="n">
+        <v>2534415</v>
       </c>
       <c r="B495" t="inlineStr">
         <is>
@@ -10336,10 +9348,8 @@
       </c>
     </row>
     <row r="496">
-      <c r="A496" t="inlineStr">
-        <is>
-          <t>1683203</t>
-        </is>
+      <c r="A496" t="n">
+        <v>1683203</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
@@ -10356,10 +9366,8 @@
       </c>
     </row>
     <row r="497">
-      <c r="A497" t="inlineStr">
-        <is>
-          <t>1910953</t>
-        </is>
+      <c r="A497" t="n">
+        <v>1910953</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
@@ -10376,10 +9384,8 @@
       </c>
     </row>
     <row r="498">
-      <c r="A498" t="inlineStr">
-        <is>
-          <t>2820884</t>
-        </is>
+      <c r="A498" t="n">
+        <v>2820884</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
@@ -10396,10 +9402,8 @@
       </c>
     </row>
     <row r="499">
-      <c r="A499" t="inlineStr">
-        <is>
-          <t>256901</t>
-        </is>
+      <c r="A499" t="n">
+        <v>256901</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
@@ -10416,10 +9420,8 @@
       </c>
     </row>
     <row r="500">
-      <c r="A500" t="inlineStr">
-        <is>
-          <t>466743</t>
-        </is>
+      <c r="A500" t="n">
+        <v>466743</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
@@ -10436,10 +9438,8 @@
       </c>
     </row>
     <row r="501">
-      <c r="A501" t="inlineStr">
-        <is>
-          <t>2641303</t>
-        </is>
+      <c r="A501" t="n">
+        <v>2641303</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
@@ -10456,10 +9456,8 @@
       </c>
     </row>
     <row r="502">
-      <c r="A502" t="inlineStr">
-        <is>
-          <t>1731883</t>
-        </is>
+      <c r="A502" t="n">
+        <v>1731883</v>
       </c>
       <c r="B502" t="inlineStr">
         <is>
@@ -10476,10 +9474,8 @@
       </c>
     </row>
     <row r="503">
-      <c r="A503" t="inlineStr">
-        <is>
-          <t>253616</t>
-        </is>
+      <c r="A503" t="n">
+        <v>253616</v>
       </c>
       <c r="B503" t="inlineStr">
         <is>
@@ -10496,10 +9492,8 @@
       </c>
     </row>
     <row r="504">
-      <c r="A504" t="inlineStr">
-        <is>
-          <t>1850370</t>
-        </is>
+      <c r="A504" t="n">
+        <v>1850370</v>
       </c>
       <c r="B504" t="inlineStr">
         <is>
@@ -10516,10 +9510,8 @@
       </c>
     </row>
     <row r="505">
-      <c r="A505" t="inlineStr">
-        <is>
-          <t>2425874</t>
-        </is>
+      <c r="A505" t="n">
+        <v>2425874</v>
       </c>
       <c r="B505" t="inlineStr">
         <is>
@@ -10536,10 +9528,8 @@
       </c>
     </row>
     <row r="506">
-      <c r="A506" t="inlineStr">
-        <is>
-          <t>540239</t>
-        </is>
+      <c r="A506" t="n">
+        <v>540239</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
@@ -10556,10 +9546,8 @@
       </c>
     </row>
     <row r="507">
-      <c r="A507" t="inlineStr">
-        <is>
-          <t>494699</t>
-        </is>
+      <c r="A507" t="n">
+        <v>494699</v>
       </c>
       <c r="B507" t="inlineStr">
         <is>
@@ -10576,10 +9564,8 @@
       </c>
     </row>
     <row r="508">
-      <c r="A508" t="inlineStr">
-        <is>
-          <t>76982</t>
-        </is>
+      <c r="A508" t="n">
+        <v>76982</v>
       </c>
       <c r="B508" t="inlineStr">
         <is>
@@ -10596,10 +9582,8 @@
       </c>
     </row>
     <row r="509">
-      <c r="A509" t="inlineStr">
-        <is>
-          <t>425625</t>
-        </is>
+      <c r="A509" t="n">
+        <v>425625</v>
       </c>
       <c r="B509" t="inlineStr">
         <is>
@@ -10616,10 +9600,8 @@
       </c>
     </row>
     <row r="510">
-      <c r="A510" t="inlineStr">
-        <is>
-          <t>9952</t>
-        </is>
+      <c r="A510" t="n">
+        <v>9952</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
@@ -10636,10 +9618,8 @@
       </c>
     </row>
     <row r="511">
-      <c r="A511" t="inlineStr">
-        <is>
-          <t>164800</t>
-        </is>
+      <c r="A511" t="n">
+        <v>164800</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
@@ -10656,10 +9636,8 @@
       </c>
     </row>
     <row r="512">
-      <c r="A512" t="inlineStr">
-        <is>
-          <t>2921765</t>
-        </is>
+      <c r="A512" t="n">
+        <v>2921765</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
@@ -10676,10 +9654,8 @@
       </c>
     </row>
     <row r="513">
-      <c r="A513" t="inlineStr">
-        <is>
-          <t>465878</t>
-        </is>
+      <c r="A513" t="n">
+        <v>465878</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
@@ -10696,10 +9672,8 @@
       </c>
     </row>
     <row r="514">
-      <c r="A514" t="inlineStr">
-        <is>
-          <t>436635</t>
-        </is>
+      <c r="A514" t="n">
+        <v>436635</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
@@ -10716,10 +9690,8 @@
       </c>
     </row>
     <row r="515">
-      <c r="A515" t="inlineStr">
-        <is>
-          <t>147852</t>
-        </is>
+      <c r="A515" t="n">
+        <v>147852</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
@@ -10736,10 +9708,8 @@
       </c>
     </row>
     <row r="516">
-      <c r="A516" t="inlineStr">
-        <is>
-          <t>1432961</t>
-        </is>
+      <c r="A516" t="n">
+        <v>1432961</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
@@ -10756,10 +9726,8 @@
       </c>
     </row>
     <row r="517">
-      <c r="A517" t="inlineStr">
-        <is>
-          <t>1749264</t>
-        </is>
+      <c r="A517" t="n">
+        <v>1749264</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
@@ -10776,10 +9744,8 @@
       </c>
     </row>
     <row r="518">
-      <c r="A518" t="inlineStr">
-        <is>
-          <t>2213282</t>
-        </is>
+      <c r="A518" t="n">
+        <v>2213282</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
@@ -10796,10 +9762,8 @@
       </c>
     </row>
     <row r="519">
-      <c r="A519" t="inlineStr">
-        <is>
-          <t>1783553</t>
-        </is>
+      <c r="A519" t="n">
+        <v>1783553</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
@@ -10816,10 +9780,8 @@
       </c>
     </row>
     <row r="520">
-      <c r="A520" t="inlineStr">
-        <is>
-          <t>1905568</t>
-        </is>
+      <c r="A520" t="n">
+        <v>1905568</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
@@ -10836,10 +9798,8 @@
       </c>
     </row>
     <row r="521">
-      <c r="A521" t="inlineStr">
-        <is>
-          <t>1564917</t>
-        </is>
+      <c r="A521" t="n">
+        <v>1564917</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
@@ -10856,10 +9816,8 @@
       </c>
     </row>
     <row r="522">
-      <c r="A522" t="inlineStr">
-        <is>
-          <t>446103</t>
-        </is>
+      <c r="A522" t="n">
+        <v>446103</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
@@ -10876,10 +9834,8 @@
       </c>
     </row>
     <row r="523">
-      <c r="A523" t="inlineStr">
-        <is>
-          <t>56563</t>
-        </is>
+      <c r="A523" t="n">
+        <v>56563</v>
       </c>
       <c r="B523" t="inlineStr">
         <is>
@@ -10896,10 +9852,8 @@
       </c>
     </row>
     <row r="524">
-      <c r="A524" t="inlineStr">
-        <is>
-          <t>141491</t>
-        </is>
+      <c r="A524" t="n">
+        <v>141491</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
@@ -10916,10 +9870,8 @@
       </c>
     </row>
     <row r="525">
-      <c r="A525" t="inlineStr">
-        <is>
-          <t>2012005</t>
-        </is>
+      <c r="A525" t="n">
+        <v>2012005</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
@@ -10936,10 +9888,8 @@
       </c>
     </row>
     <row r="526">
-      <c r="A526" t="inlineStr">
-        <is>
-          <t>459340</t>
-        </is>
+      <c r="A526" t="n">
+        <v>459340</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
@@ -10956,10 +9906,8 @@
       </c>
     </row>
     <row r="527">
-      <c r="A527" t="inlineStr">
-        <is>
-          <t>1943662</t>
-        </is>
+      <c r="A527" t="n">
+        <v>1943662</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
@@ -10976,10 +9924,8 @@
       </c>
     </row>
     <row r="528">
-      <c r="A528" t="inlineStr">
-        <is>
-          <t>220531</t>
-        </is>
+      <c r="A528" t="n">
+        <v>220531</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
@@ -10996,10 +9942,8 @@
       </c>
     </row>
     <row r="529">
-      <c r="A529" t="inlineStr">
-        <is>
-          <t>1848155</t>
-        </is>
+      <c r="A529" t="n">
+        <v>1848155</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
@@ -11016,10 +9960,8 @@
       </c>
     </row>
     <row r="530">
-      <c r="A530" t="inlineStr">
-        <is>
-          <t>500458</t>
-        </is>
+      <c r="A530" t="n">
+        <v>500458</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
@@ -11036,10 +9978,8 @@
       </c>
     </row>
     <row r="531">
-      <c r="A531" t="inlineStr">
-        <is>
-          <t>283555</t>
-        </is>
+      <c r="A531" t="n">
+        <v>283555</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
@@ -11056,10 +9996,8 @@
       </c>
     </row>
     <row r="532">
-      <c r="A532" t="inlineStr">
-        <is>
-          <t>1847283</t>
-        </is>
+      <c r="A532" t="n">
+        <v>1847283</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
@@ -11076,10 +10014,8 @@
       </c>
     </row>
     <row r="533">
-      <c r="A533" t="inlineStr">
-        <is>
-          <t>463661</t>
-        </is>
+      <c r="A533" t="n">
+        <v>463661</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
@@ -11096,10 +10032,8 @@
       </c>
     </row>
     <row r="534">
-      <c r="A534" t="inlineStr">
-        <is>
-          <t>1858953</t>
-        </is>
+      <c r="A534" t="n">
+        <v>1858953</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
@@ -11116,10 +10050,8 @@
       </c>
     </row>
     <row r="535">
-      <c r="A535" t="inlineStr">
-        <is>
-          <t>500463</t>
-        </is>
+      <c r="A535" t="n">
+        <v>500463</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
@@ -11136,10 +10068,8 @@
       </c>
     </row>
     <row r="536">
-      <c r="A536" t="inlineStr">
-        <is>
-          <t>1779016</t>
-        </is>
+      <c r="A536" t="n">
+        <v>1779016</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
@@ -11156,10 +10086,8 @@
       </c>
     </row>
     <row r="537">
-      <c r="A537" t="inlineStr">
-        <is>
-          <t>1502841</t>
-        </is>
+      <c r="A537" t="n">
+        <v>1502841</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
@@ -11176,10 +10104,8 @@
       </c>
     </row>
     <row r="538">
-      <c r="A538" t="inlineStr">
-        <is>
-          <t>905772</t>
-        </is>
+      <c r="A538" t="n">
+        <v>905772</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
@@ -11196,10 +10122,8 @@
       </c>
     </row>
     <row r="539">
-      <c r="A539" t="inlineStr">
-        <is>
-          <t>389018</t>
-        </is>
+      <c r="A539" t="n">
+        <v>389018</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
@@ -11216,10 +10140,8 @@
       </c>
     </row>
     <row r="540">
-      <c r="A540" t="inlineStr">
-        <is>
-          <t>1528755</t>
-        </is>
+      <c r="A540" t="n">
+        <v>1528755</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
@@ -11236,10 +10158,8 @@
       </c>
     </row>
     <row r="541">
-      <c r="A541" t="inlineStr">
-        <is>
-          <t>2525245</t>
-        </is>
+      <c r="A541" t="n">
+        <v>2525245</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
@@ -11256,10 +10176,8 @@
       </c>
     </row>
     <row r="542">
-      <c r="A542" t="inlineStr">
-        <is>
-          <t>1944640</t>
-        </is>
+      <c r="A542" t="n">
+        <v>1944640</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
@@ -11276,10 +10194,8 @@
       </c>
     </row>
     <row r="543">
-      <c r="A543" t="inlineStr">
-        <is>
-          <t>473067</t>
-        </is>
+      <c r="A543" t="n">
+        <v>473067</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
@@ -11296,10 +10212,8 @@
       </c>
     </row>
     <row r="544">
-      <c r="A544" t="inlineStr">
-        <is>
-          <t>1388571</t>
-        </is>
+      <c r="A544" t="n">
+        <v>1388571</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
@@ -11316,10 +10230,8 @@
       </c>
     </row>
     <row r="545">
-      <c r="A545" t="inlineStr">
-        <is>
-          <t>447066</t>
-        </is>
+      <c r="A545" t="n">
+        <v>447066</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
@@ -11336,10 +10248,8 @@
       </c>
     </row>
     <row r="546">
-      <c r="A546" t="inlineStr">
-        <is>
-          <t>1287383</t>
-        </is>
+      <c r="A546" t="n">
+        <v>1287383</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
@@ -11356,10 +10266,8 @@
       </c>
     </row>
     <row r="547">
-      <c r="A547" t="inlineStr">
-        <is>
-          <t>1848795</t>
-        </is>
+      <c r="A547" t="n">
+        <v>1848795</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
@@ -11376,10 +10284,8 @@
       </c>
     </row>
     <row r="548">
-      <c r="A548" t="inlineStr">
-        <is>
-          <t>182966</t>
-        </is>
+      <c r="A548" t="n">
+        <v>182966</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
@@ -11396,10 +10302,8 @@
       </c>
     </row>
     <row r="549">
-      <c r="A549" t="inlineStr">
-        <is>
-          <t>1610173</t>
-        </is>
+      <c r="A549" t="n">
+        <v>1610173</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
@@ -11416,10 +10320,8 @@
       </c>
     </row>
     <row r="550">
-      <c r="A550" t="inlineStr">
-        <is>
-          <t>1839814</t>
-        </is>
+      <c r="A550" t="n">
+        <v>1839814</v>
       </c>
       <c r="B550" t="inlineStr">
         <is>
@@ -11436,10 +10338,8 @@
       </c>
     </row>
     <row r="551">
-      <c r="A551" t="inlineStr">
-        <is>
-          <t>426465</t>
-        </is>
+      <c r="A551" t="n">
+        <v>426465</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
@@ -11456,10 +10356,8 @@
       </c>
     </row>
     <row r="552">
-      <c r="A552" t="inlineStr">
-        <is>
-          <t>1860457</t>
-        </is>
+      <c r="A552" t="n">
+        <v>1860457</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
@@ -11476,10 +10374,8 @@
       </c>
     </row>
     <row r="553">
-      <c r="A553" t="inlineStr">
-        <is>
-          <t>1847394</t>
-        </is>
+      <c r="A553" t="n">
+        <v>1847394</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
@@ -11496,10 +10392,8 @@
       </c>
     </row>
     <row r="554">
-      <c r="A554" t="inlineStr">
-        <is>
-          <t>451456</t>
-        </is>
+      <c r="A554" t="n">
+        <v>451456</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
@@ -11516,10 +10410,8 @@
       </c>
     </row>
     <row r="555">
-      <c r="A555" t="inlineStr">
-        <is>
-          <t>2420482</t>
-        </is>
+      <c r="A555" t="n">
+        <v>2420482</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
@@ -11536,10 +10428,8 @@
       </c>
     </row>
     <row r="556">
-      <c r="A556" t="inlineStr">
-        <is>
-          <t>394300</t>
-        </is>
+      <c r="A556" t="n">
+        <v>394300</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
@@ -11556,10 +10446,8 @@
       </c>
     </row>
     <row r="557">
-      <c r="A557" t="inlineStr">
-        <is>
-          <t>1938010</t>
-        </is>
+      <c r="A557" t="n">
+        <v>1938010</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
@@ -11576,10 +10464,8 @@
       </c>
     </row>
     <row r="558">
-      <c r="A558" t="inlineStr">
-        <is>
-          <t>2805585</t>
-        </is>
+      <c r="A558" t="n">
+        <v>2805585</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
@@ -11596,10 +10482,8 @@
       </c>
     </row>
     <row r="559">
-      <c r="A559" t="inlineStr">
-        <is>
-          <t>473141</t>
-        </is>
+      <c r="A559" t="n">
+        <v>473141</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
@@ -11616,10 +10500,8 @@
       </c>
     </row>
     <row r="560">
-      <c r="A560" t="inlineStr">
-        <is>
-          <t>1850232</t>
-        </is>
+      <c r="A560" t="n">
+        <v>1850232</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
@@ -11636,10 +10518,8 @@
       </c>
     </row>
     <row r="561">
-      <c r="A561" t="inlineStr">
-        <is>
-          <t>1215578</t>
-        </is>
+      <c r="A561" t="n">
+        <v>1215578</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
@@ -11656,10 +10536,8 @@
       </c>
     </row>
     <row r="562">
-      <c r="A562" t="inlineStr">
-        <is>
-          <t>77972</t>
-        </is>
+      <c r="A562" t="n">
+        <v>77972</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
@@ -11676,10 +10554,8 @@
       </c>
     </row>
     <row r="563">
-      <c r="A563" t="inlineStr">
-        <is>
-          <t>1762390</t>
-        </is>
+      <c r="A563" t="n">
+        <v>1762390</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
@@ -11696,10 +10572,8 @@
       </c>
     </row>
     <row r="564">
-      <c r="A564" t="inlineStr">
-        <is>
-          <t>1972684</t>
-        </is>
+      <c r="A564" t="n">
+        <v>1972684</v>
       </c>
       <c r="B564" t="inlineStr">
         <is>
@@ -11716,10 +10590,8 @@
       </c>
     </row>
     <row r="565">
-      <c r="A565" t="inlineStr">
-        <is>
-          <t>417285</t>
-        </is>
+      <c r="A565" t="n">
+        <v>417285</v>
       </c>
       <c r="B565" t="inlineStr">
         <is>
@@ -11736,10 +10608,8 @@
       </c>
     </row>
     <row r="566">
-      <c r="A566" t="inlineStr">
-        <is>
-          <t>1849754</t>
-        </is>
+      <c r="A566" t="n">
+        <v>1849754</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
@@ -11756,10 +10626,8 @@
       </c>
     </row>
     <row r="567">
-      <c r="A567" t="inlineStr">
-        <is>
-          <t>290471</t>
-        </is>
+      <c r="A567" t="n">
+        <v>290471</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
@@ -11776,10 +10644,8 @@
       </c>
     </row>
     <row r="568">
-      <c r="A568" t="inlineStr">
-        <is>
-          <t>1394848</t>
-        </is>
+      <c r="A568" t="n">
+        <v>1394848</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
@@ -11796,10 +10662,8 @@
       </c>
     </row>
     <row r="569">
-      <c r="A569" t="inlineStr">
-        <is>
-          <t>1845591</t>
-        </is>
+      <c r="A569" t="n">
+        <v>1845591</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
@@ -11816,10 +10680,8 @@
       </c>
     </row>
     <row r="570">
-      <c r="A570" t="inlineStr">
-        <is>
-          <t>1238689</t>
-        </is>
+      <c r="A570" t="n">
+        <v>1238689</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
@@ -11836,10 +10698,8 @@
       </c>
     </row>
     <row r="571">
-      <c r="A571" t="inlineStr">
-        <is>
-          <t>1851131</t>
-        </is>
+      <c r="A571" t="n">
+        <v>1851131</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
@@ -11856,10 +10716,8 @@
       </c>
     </row>
     <row r="572">
-      <c r="A572" t="inlineStr">
-        <is>
-          <t>1101761</t>
-        </is>
+      <c r="A572" t="n">
+        <v>1101761</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
@@ -11876,10 +10734,8 @@
       </c>
     </row>
     <row r="573">
-      <c r="A573" t="inlineStr">
-        <is>
-          <t>270492</t>
-        </is>
+      <c r="A573" t="n">
+        <v>270492</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
@@ -11896,10 +10752,8 @@
       </c>
     </row>
     <row r="574">
-      <c r="A574" t="inlineStr">
-        <is>
-          <t>99670</t>
-        </is>
+      <c r="A574" t="n">
+        <v>99670</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
@@ -11916,10 +10770,8 @@
       </c>
     </row>
     <row r="575">
-      <c r="A575" t="inlineStr">
-        <is>
-          <t>1829342</t>
-        </is>
+      <c r="A575" t="n">
+        <v>1829342</v>
       </c>
       <c r="B575" t="inlineStr">
         <is>
@@ -11936,10 +10788,8 @@
       </c>
     </row>
     <row r="576">
-      <c r="A576" t="inlineStr">
-        <is>
-          <t>382137</t>
-        </is>
+      <c r="A576" t="n">
+        <v>382137</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
@@ -11956,10 +10806,8 @@
       </c>
     </row>
     <row r="577">
-      <c r="A577" t="inlineStr">
-        <is>
-          <t>1832091</t>
-        </is>
+      <c r="A577" t="n">
+        <v>1832091</v>
       </c>
       <c r="B577" t="inlineStr">
         <is>
@@ -11976,10 +10824,8 @@
       </c>
     </row>
     <row r="578">
-      <c r="A578" t="inlineStr">
-        <is>
-          <t>2464849</t>
-        </is>
+      <c r="A578" t="n">
+        <v>2464849</v>
       </c>
       <c r="B578" t="inlineStr">
         <is>
@@ -11996,10 +10842,8 @@
       </c>
     </row>
     <row r="579">
-      <c r="A579" t="inlineStr">
-        <is>
-          <t>660087</t>
-        </is>
+      <c r="A579" t="n">
+        <v>660087</v>
       </c>
       <c r="B579" t="inlineStr">
         <is>
@@ -12016,10 +10860,8 @@
       </c>
     </row>
     <row r="580">
-      <c r="A580" t="inlineStr">
-        <is>
-          <t>1060636</t>
-        </is>
+      <c r="A580" t="n">
+        <v>1060636</v>
       </c>
       <c r="B580" t="inlineStr">
         <is>
@@ -12036,10 +10878,8 @@
       </c>
     </row>
     <row r="581">
-      <c r="A581" t="inlineStr">
-        <is>
-          <t>446844</t>
-        </is>
+      <c r="A581" t="n">
+        <v>446844</v>
       </c>
       <c r="B581" t="inlineStr">
         <is>
@@ -12056,10 +10896,8 @@
       </c>
     </row>
     <row r="582">
-      <c r="A582" t="inlineStr">
-        <is>
-          <t>1867239</t>
-        </is>
+      <c r="A582" t="n">
+        <v>1867239</v>
       </c>
       <c r="B582" t="inlineStr">
         <is>
@@ -12076,10 +10914,8 @@
       </c>
     </row>
     <row r="583">
-      <c r="A583" t="inlineStr">
-        <is>
-          <t>142797</t>
-        </is>
+      <c r="A583" t="n">
+        <v>142797</v>
       </c>
       <c r="B583" t="inlineStr">
         <is>
@@ -12096,10 +10932,8 @@
       </c>
     </row>
     <row r="584">
-      <c r="A584" t="inlineStr">
-        <is>
-          <t>479701</t>
-        </is>
+      <c r="A584" t="n">
+        <v>479701</v>
       </c>
       <c r="B584" t="inlineStr">
         <is>
@@ -12116,10 +10950,8 @@
       </c>
     </row>
     <row r="585">
-      <c r="A585" t="inlineStr">
-        <is>
-          <t>160339</t>
-        </is>
+      <c r="A585" t="n">
+        <v>160339</v>
       </c>
       <c r="B585" t="inlineStr">
         <is>
@@ -12136,10 +10968,8 @@
       </c>
     </row>
     <row r="586">
-      <c r="A586" t="inlineStr">
-        <is>
-          <t>310694</t>
-        </is>
+      <c r="A586" t="n">
+        <v>310694</v>
       </c>
       <c r="B586" t="inlineStr">
         <is>
@@ -12156,10 +10986,8 @@
       </c>
     </row>
     <row r="587">
-      <c r="A587" t="inlineStr">
-        <is>
-          <t>1850624</t>
-        </is>
+      <c r="A587" t="n">
+        <v>1850624</v>
       </c>
       <c r="B587" t="inlineStr">
         <is>
@@ -12176,10 +11004,8 @@
       </c>
     </row>
     <row r="588">
-      <c r="A588" t="inlineStr">
-        <is>
-          <t>1521197</t>
-        </is>
+      <c r="A588" t="n">
+        <v>1521197</v>
       </c>
       <c r="B588" t="inlineStr">
         <is>
@@ -12196,10 +11022,8 @@
       </c>
     </row>
     <row r="589">
-      <c r="A589" t="inlineStr">
-        <is>
-          <t>2626127</t>
-        </is>
+      <c r="A589" t="n">
+        <v>2626127</v>
       </c>
       <c r="B589" t="inlineStr">
         <is>
@@ -12216,10 +11040,8 @@
       </c>
     </row>
     <row r="590">
-      <c r="A590" t="inlineStr">
-        <is>
-          <t>2766090</t>
-        </is>
+      <c r="A590" t="n">
+        <v>2766090</v>
       </c>
       <c r="B590" t="inlineStr">
         <is>
@@ -12236,10 +11058,8 @@
       </c>
     </row>
     <row r="591">
-      <c r="A591" t="inlineStr">
-        <is>
-          <t>2867104</t>
-        </is>
+      <c r="A591" t="n">
+        <v>2867104</v>
       </c>
       <c r="B591" t="inlineStr">
         <is>
@@ -12256,10 +11076,8 @@
       </c>
     </row>
     <row r="592">
-      <c r="A592" t="inlineStr">
-        <is>
-          <t>721196</t>
-        </is>
+      <c r="A592" t="n">
+        <v>721196</v>
       </c>
       <c r="B592" t="inlineStr">
         <is>
@@ -12276,10 +11094,8 @@
       </c>
     </row>
     <row r="593">
-      <c r="A593" t="inlineStr">
-        <is>
-          <t>448134</t>
-        </is>
+      <c r="A593" t="n">
+        <v>448134</v>
       </c>
       <c r="B593" t="inlineStr">
         <is>
@@ -12296,10 +11112,8 @@
       </c>
     </row>
     <row r="594">
-      <c r="A594" t="inlineStr">
-        <is>
-          <t>1845704</t>
-        </is>
+      <c r="A594" t="n">
+        <v>1845704</v>
       </c>
       <c r="B594" t="inlineStr">
         <is>
@@ -12316,10 +11130,8 @@
       </c>
     </row>
     <row r="595">
-      <c r="A595" t="inlineStr">
-        <is>
-          <t>1210810</t>
-        </is>
+      <c r="A595" t="n">
+        <v>1210810</v>
       </c>
       <c r="B595" t="inlineStr">
         <is>
@@ -12336,10 +11148,8 @@
       </c>
     </row>
     <row r="596">
-      <c r="A596" t="inlineStr">
-        <is>
-          <t>467112</t>
-        </is>
+      <c r="A596" t="n">
+        <v>467112</v>
       </c>
       <c r="B596" t="inlineStr">
         <is>
@@ -12356,10 +11166,8 @@
       </c>
     </row>
     <row r="597">
-      <c r="A597" t="inlineStr">
-        <is>
-          <t>1417745</t>
-        </is>
+      <c r="A597" t="n">
+        <v>1417745</v>
       </c>
       <c r="B597" t="inlineStr">
         <is>
@@ -12376,10 +11184,8 @@
       </c>
     </row>
     <row r="598">
-      <c r="A598" t="inlineStr">
-        <is>
-          <t>2372426</t>
-        </is>
+      <c r="A598" t="n">
+        <v>2372426</v>
       </c>
       <c r="B598" t="inlineStr">
         <is>
@@ -12396,10 +11202,8 @@
       </c>
     </row>
     <row r="599">
-      <c r="A599" t="inlineStr">
-        <is>
-          <t>346466</t>
-        </is>
+      <c r="A599" t="n">
+        <v>346466</v>
       </c>
       <c r="B599" t="inlineStr">
         <is>
@@ -12416,10 +11220,8 @@
       </c>
     </row>
     <row r="600">
-      <c r="A600" t="inlineStr">
-        <is>
-          <t>414697</t>
-        </is>
+      <c r="A600" t="n">
+        <v>414697</v>
       </c>
       <c r="B600" t="inlineStr">
         <is>
@@ -12436,10 +11238,8 @@
       </c>
     </row>
     <row r="601">
-      <c r="A601" t="inlineStr">
-        <is>
-          <t>491546</t>
-        </is>
+      <c r="A601" t="n">
+        <v>491546</v>
       </c>
       <c r="B601" t="inlineStr">
         <is>
